--- a/JupyterNotebooks/AvgHW/Alpha2F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -743,19 +635,19 @@
         <v>0.999939978734995</v>
       </c>
       <c r="F3">
+        <v>1.000240083850282</v>
+      </c>
+      <c r="G3">
         <v>0.999939978734995</v>
       </c>
-      <c r="G3">
+      <c r="H3">
+        <v>0.999939978734995</v>
+      </c>
+      <c r="I3">
         <v>0.9998399428970202</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>1.000132046875857</v>
-      </c>
-      <c r="I3">
-        <v>0.999939978734995</v>
-      </c>
-      <c r="J3">
-        <v>1.000240083850282</v>
       </c>
       <c r="K3">
         <v>0.999939978734995</v>
@@ -788,7 +680,7 @@
         <v>1.000005334971357</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -805,19 +697,19 @@
         <v>0.9998841291518948</v>
       </c>
       <c r="F4">
+        <v>1.000463478719259</v>
+      </c>
+      <c r="G4">
         <v>0.9998841291518948</v>
       </c>
-      <c r="G4">
+      <c r="H4">
+        <v>0.9998841291518948</v>
+      </c>
+      <c r="I4">
         <v>0.999691011295459</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>1.00025491493787</v>
-      </c>
-      <c r="I4">
-        <v>0.9998841291518948</v>
-      </c>
-      <c r="J4">
-        <v>1.000463478719259</v>
       </c>
       <c r="K4">
         <v>0.9998841291518948</v>
@@ -850,7 +742,7 @@
         <v>1.000010298734712</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -867,19 +759,19 @@
         <v>0.9997779523477128</v>
       </c>
       <c r="F5">
+        <v>1.00088819971809</v>
+      </c>
+      <c r="G5">
         <v>0.9997779523477128</v>
       </c>
-      <c r="G5">
+      <c r="H5">
+        <v>0.9997779523477128</v>
+      </c>
+      <c r="I5">
         <v>0.9994078658345956</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>1.000488514958499</v>
-      </c>
-      <c r="I5">
-        <v>0.9997779523477128</v>
-      </c>
-      <c r="J5">
-        <v>1.00088819971809</v>
       </c>
       <c r="K5">
         <v>0.9997779523477128</v>
@@ -912,7 +804,7 @@
         <v>1.000019739592387</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -929,19 +821,19 @@
         <v>0.9996743159300435</v>
       </c>
       <c r="F6">
+        <v>1.001302707281004</v>
+      </c>
+      <c r="G6">
         <v>0.9996743159300435</v>
       </c>
-      <c r="G6">
+      <c r="H6">
+        <v>0.9996743159300435</v>
+      </c>
+      <c r="I6">
         <v>0.9991315239201644</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>1.000716498427485</v>
-      </c>
-      <c r="I6">
-        <v>0.9996743159300435</v>
-      </c>
-      <c r="J6">
-        <v>1.001302707281004</v>
       </c>
       <c r="K6">
         <v>0.9996743159300435</v>
@@ -974,7 +866,7 @@
         <v>1.000028946236464</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,25 +877,25 @@
         <v>0.9999965467029464</v>
       </c>
       <c r="D7">
-        <v>1.000013811488775</v>
+        <v>1.000013811488774</v>
       </c>
       <c r="E7">
         <v>0.9999965467029464</v>
       </c>
       <c r="F7">
+        <v>1.000013811488774</v>
+      </c>
+      <c r="G7">
         <v>0.9999965467029464</v>
       </c>
-      <c r="G7">
+      <c r="H7">
+        <v>0.9999965467029464</v>
+      </c>
+      <c r="I7">
         <v>0.9999907915894506</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>1.000007596414351</v>
-      </c>
-      <c r="I7">
-        <v>0.9999965467029464</v>
-      </c>
-      <c r="J7">
-        <v>1.000013811488775</v>
       </c>
       <c r="K7">
         <v>0.9999965467029464</v>
@@ -1012,10 +904,10 @@
         <v>0.9999965467029464</v>
       </c>
       <c r="M7">
-        <v>1.000005179095861</v>
+        <v>1.00000517909586</v>
       </c>
       <c r="N7">
-        <v>1.000005179095861</v>
+        <v>1.00000517909586</v>
       </c>
       <c r="O7">
         <v>1.000005984868691</v>
@@ -1036,7 +928,7 @@
         <v>1.000000306600236</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1053,19 +945,19 @@
         <v>0.9999940165779525</v>
       </c>
       <c r="F8">
+        <v>1.000023932132427</v>
+      </c>
+      <c r="G8">
         <v>0.9999940165779525</v>
       </c>
-      <c r="G8">
+      <c r="H8">
+        <v>0.9999940165779525</v>
+      </c>
+      <c r="I8">
         <v>0.9999840444253036</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>1.000013162732351</v>
-      </c>
-      <c r="I8">
-        <v>0.9999940165779525</v>
-      </c>
-      <c r="J8">
-        <v>1.000023932132427</v>
       </c>
       <c r="K8">
         <v>0.9999940165779525</v>
@@ -1098,7 +990,7 @@
         <v>1.00000053150399</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1115,19 +1007,19 @@
         <v>0.9999923323923063</v>
       </c>
       <c r="F9">
+        <v>1.000030667399485</v>
+      </c>
+      <c r="G9">
         <v>0.9999923323923063</v>
       </c>
-      <c r="G9">
+      <c r="H9">
+        <v>0.9999923323923063</v>
+      </c>
+      <c r="I9">
         <v>0.9999795545242113</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>1.000016866830196</v>
-      </c>
-      <c r="I9">
-        <v>0.9999923323923063</v>
-      </c>
-      <c r="J9">
-        <v>1.000030667399485</v>
       </c>
       <c r="K9">
         <v>0.9999923323923063</v>
@@ -1160,7 +1052,7 @@
         <v>1.000000680988469</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1177,19 +1069,19 @@
         <v>0.9999826150351651</v>
       </c>
       <c r="F10">
+        <v>1.000069536772217</v>
+      </c>
+      <c r="G10">
         <v>0.9999826150351651</v>
       </c>
-      <c r="G10">
-        <v>0.9999536415098367</v>
-      </c>
       <c r="H10">
+        <v>0.9999826150351651</v>
+      </c>
+      <c r="I10">
+        <v>0.9999536415098369</v>
+      </c>
+      <c r="J10">
         <v>1.000038245015128</v>
-      </c>
-      <c r="I10">
-        <v>0.9999826150351651</v>
-      </c>
-      <c r="J10">
-        <v>1.000069536772217</v>
       </c>
       <c r="K10">
         <v>0.9999826150351651</v>
@@ -1222,7 +1114,7 @@
         <v>1.00000154473378</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1239,19 +1131,19 @@
         <v>0.9999745078826879</v>
       </c>
       <c r="F11">
+        <v>1.000101966219385</v>
+      </c>
+      <c r="G11">
         <v>0.9999745078826879</v>
       </c>
-      <c r="G11">
+      <c r="H11">
+        <v>0.9999745078826879</v>
+      </c>
+      <c r="I11">
         <v>0.9999320225074123</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>1.000056082172981</v>
-      </c>
-      <c r="I11">
-        <v>0.9999745078826879</v>
-      </c>
-      <c r="J11">
-        <v>1.000101966219385</v>
       </c>
       <c r="K11">
         <v>0.9999745078826879</v>
@@ -1284,7 +1176,7 @@
         <v>1.000002265757974</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1301,19 +1193,19 @@
         <v>0.9997612421396281</v>
       </c>
       <c r="F12">
+        <v>1.000955018273049</v>
+      </c>
+      <c r="G12">
         <v>0.9997612421396281</v>
       </c>
-      <c r="G12">
+      <c r="H12">
+        <v>0.9997612421396281</v>
+      </c>
+      <c r="I12">
         <v>0.999363323984907</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>1.000525256324738</v>
-      </c>
-      <c r="I12">
-        <v>0.9997612421396281</v>
-      </c>
-      <c r="J12">
-        <v>1.000955018273049</v>
       </c>
       <c r="K12">
         <v>0.9997612421396281</v>
@@ -1346,7 +1238,7 @@
         <v>1.000021220833596</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,34 +1246,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9999366958598264</v>
+        <v>0.9999366958598266</v>
       </c>
       <c r="D13">
         <v>1.000253224397818</v>
       </c>
       <c r="E13">
-        <v>0.9999366958598264</v>
+        <v>0.9999366958598266</v>
       </c>
       <c r="F13">
-        <v>0.9999366958598264</v>
+        <v>1.000253224397818</v>
       </c>
       <c r="G13">
-        <v>0.999831184209429</v>
+        <v>0.9999366958598266</v>
       </c>
       <c r="H13">
+        <v>0.9999366958598266</v>
+      </c>
+      <c r="I13">
+        <v>0.9998311842094293</v>
+      </c>
+      <c r="J13">
         <v>1.000139273847505</v>
       </c>
-      <c r="I13">
-        <v>0.9999366958598264</v>
-      </c>
-      <c r="J13">
-        <v>1.000253224397818</v>
-      </c>
       <c r="K13">
-        <v>0.9999366958598264</v>
+        <v>0.9999366958598266</v>
       </c>
       <c r="L13">
-        <v>0.9999366958598264</v>
+        <v>0.9999366958598266</v>
       </c>
       <c r="M13">
         <v>1.000094960128822</v>
@@ -1408,7 +1300,7 @@
         <v>1.000005628339039</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1425,19 +1317,19 @@
         <v>0.9985150025448931</v>
       </c>
       <c r="F14">
+        <v>1.005940009352896</v>
+      </c>
+      <c r="G14">
         <v>0.9985150025448931</v>
       </c>
-      <c r="G14">
+      <c r="H14">
+        <v>0.9985150025448931</v>
+      </c>
+      <c r="I14">
         <v>0.9960400001423928</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>1.003267005316075</v>
-      </c>
-      <c r="I14">
-        <v>0.9985150025448931</v>
-      </c>
-      <c r="J14">
-        <v>1.005940009352896</v>
       </c>
       <c r="K14">
         <v>0.9985150025448931</v>
@@ -1452,13 +1344,13 @@
         <v>1.002227505948895</v>
       </c>
       <c r="O14">
-        <v>1.002574005737955</v>
+        <v>1.002574005737954</v>
       </c>
       <c r="P14">
-        <v>1.000990004814228</v>
+        <v>1.000990004814227</v>
       </c>
       <c r="Q14">
-        <v>1.000990004814228</v>
+        <v>1.000990004814227</v>
       </c>
       <c r="R14">
         <v>1.000371254246894</v>
@@ -1470,7 +1362,7 @@
         <v>1.000132003741007</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1487,19 +1379,19 @@
         <v>0.9995934440292141</v>
       </c>
       <c r="F15">
+        <v>1.001626225666812</v>
+      </c>
+      <c r="G15">
         <v>0.9995934440292141</v>
       </c>
-      <c r="G15">
+      <c r="H15">
+        <v>0.9995934440292141</v>
+      </c>
+      <c r="I15">
         <v>0.9989158532468723</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>1.000894412558137</v>
-      </c>
-      <c r="I15">
-        <v>0.9995934440292141</v>
-      </c>
-      <c r="J15">
-        <v>1.001626225666812</v>
       </c>
       <c r="K15">
         <v>0.9995934440292141</v>
@@ -1532,7 +1424,7 @@
         <v>1.00003613725991</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999997520634458</v>
+        <v>0.9988298266163235</v>
       </c>
       <c r="D16">
-        <v>1.000000989952287</v>
+        <v>1.004680704834066</v>
       </c>
       <c r="E16">
-        <v>0.9999997520634458</v>
+        <v>0.9988298266163235</v>
       </c>
       <c r="F16">
-        <v>0.9999997520634458</v>
+        <v>1.004680704834066</v>
       </c>
       <c r="G16">
-        <v>0.9999993392320786</v>
+        <v>0.9988298266163235</v>
       </c>
       <c r="H16">
-        <v>1.000000544720528</v>
+        <v>0.9988298266163235</v>
       </c>
       <c r="I16">
-        <v>0.9999997520634458</v>
+        <v>0.9968795284733939</v>
       </c>
       <c r="J16">
-        <v>1.000000989952287</v>
+        <v>1.002574392880033</v>
       </c>
       <c r="K16">
-        <v>0.9999997520634458</v>
+        <v>0.9988298266163235</v>
       </c>
       <c r="L16">
-        <v>0.9999997520634458</v>
+        <v>0.9988298266163235</v>
       </c>
       <c r="M16">
-        <v>1.000000371007867</v>
+        <v>1.001755265725195</v>
       </c>
       <c r="N16">
-        <v>1.000000371007867</v>
+        <v>1.001755265725195</v>
       </c>
       <c r="O16">
-        <v>1.000000428912087</v>
+        <v>1.002028308110141</v>
       </c>
       <c r="P16">
-        <v>1.00000016469306</v>
+        <v>1.000780119355571</v>
       </c>
       <c r="Q16">
-        <v>1.00000016469306</v>
+        <v>1.000780119355571</v>
       </c>
       <c r="R16">
-        <v>1.000000061535656</v>
+        <v>1.000292546170759</v>
       </c>
       <c r="S16">
-        <v>1.000000061535656</v>
+        <v>1.000292546170759</v>
       </c>
       <c r="T16">
-        <v>1.000000021682539</v>
+        <v>1.000104017672744</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999947510594365</v>
+        <v>0.9990441842785251</v>
       </c>
       <c r="D17">
-        <v>1.000020994046401</v>
+        <v>1.003823269905102</v>
       </c>
       <c r="E17">
-        <v>0.9999947510594365</v>
+        <v>0.9990441842785251</v>
       </c>
       <c r="F17">
-        <v>0.9999947510594365</v>
+        <v>1.003823269905102</v>
       </c>
       <c r="G17">
-        <v>0.9999860027497639</v>
+        <v>0.9990441842785251</v>
       </c>
       <c r="H17">
-        <v>1.000011547400902</v>
+        <v>0.9990441842785251</v>
       </c>
       <c r="I17">
-        <v>0.9999947510594365</v>
+        <v>0.9974511519654514</v>
       </c>
       <c r="J17">
-        <v>1.000020994046401</v>
+        <v>1.002102801662262</v>
       </c>
       <c r="K17">
-        <v>0.9999947510594365</v>
+        <v>0.9990441842785251</v>
       </c>
       <c r="L17">
-        <v>0.9999947510594365</v>
+        <v>0.9990441842785251</v>
       </c>
       <c r="M17">
-        <v>1.000007872552918</v>
+        <v>1.001433727091813</v>
       </c>
       <c r="N17">
-        <v>1.000007872552918</v>
+        <v>1.001433727091813</v>
       </c>
       <c r="O17">
-        <v>1.000009097502246</v>
+        <v>1.001656751948629</v>
       </c>
       <c r="P17">
-        <v>1.000003498721758</v>
+        <v>1.000637212820717</v>
       </c>
       <c r="Q17">
-        <v>1.000003498721758</v>
+        <v>1.000637212820717</v>
       </c>
       <c r="R17">
-        <v>1.000001311806177</v>
+        <v>1.000238955685169</v>
       </c>
       <c r="S17">
-        <v>1.000001311806177</v>
+        <v>1.000238955685169</v>
       </c>
       <c r="T17">
-        <v>1.000000466229229</v>
+        <v>1.000084962728065</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999815202614994</v>
+        <v>0.9994784713803272</v>
       </c>
       <c r="D18">
-        <v>1.000073918526963</v>
+        <v>1.002086110636026</v>
       </c>
       <c r="E18">
-        <v>0.9999815202614994</v>
+        <v>0.9994784713803272</v>
       </c>
       <c r="F18">
-        <v>0.9999815202614994</v>
+        <v>1.002086110636026</v>
       </c>
       <c r="G18">
-        <v>0.9999507242358527</v>
+        <v>0.9994784713803272</v>
       </c>
       <c r="H18">
-        <v>1.000040655595972</v>
+        <v>0.9994784713803272</v>
       </c>
       <c r="I18">
-        <v>0.9999815202614994</v>
+        <v>0.9986092575937182</v>
       </c>
       <c r="J18">
-        <v>1.000073918526963</v>
+        <v>1.001147362630002</v>
       </c>
       <c r="K18">
-        <v>0.9999815202614994</v>
+        <v>0.9994784713803272</v>
       </c>
       <c r="L18">
-        <v>0.9999815202614994</v>
+        <v>0.9994784713803272</v>
       </c>
       <c r="M18">
-        <v>1.000027719394231</v>
+        <v>1.000782291008177</v>
       </c>
       <c r="N18">
-        <v>1.000027719394231</v>
+        <v>1.000782291008177</v>
       </c>
       <c r="O18">
-        <v>1.000032031461478</v>
+        <v>1.000903981548785</v>
       </c>
       <c r="P18">
-        <v>1.000012319683321</v>
+        <v>1.00034768446556</v>
       </c>
       <c r="Q18">
-        <v>1.000012319683321</v>
+        <v>1.00034768446556</v>
       </c>
       <c r="R18">
-        <v>1.000004619827865</v>
+        <v>1.000130381194252</v>
       </c>
       <c r="S18">
-        <v>1.000004619827865</v>
+        <v>1.000130381194252</v>
       </c>
       <c r="T18">
-        <v>1.000001643190548</v>
+        <v>1.000046357500121</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9994430779826561</v>
+      </c>
+      <c r="D19">
+        <v>1.002227686566661</v>
+      </c>
+      <c r="E19">
+        <v>0.9994430779826561</v>
+      </c>
+      <c r="F19">
+        <v>1.002227686566661</v>
+      </c>
+      <c r="G19">
+        <v>0.9994430779826561</v>
+      </c>
+      <c r="H19">
+        <v>0.9994430779826561</v>
+      </c>
+      <c r="I19">
+        <v>0.998514871241634</v>
+      </c>
+      <c r="J19">
+        <v>1.001225227410632</v>
+      </c>
+      <c r="K19">
+        <v>0.9994430779826561</v>
+      </c>
+      <c r="L19">
+        <v>0.9994430779826561</v>
+      </c>
+      <c r="M19">
+        <v>1.000835382274658</v>
+      </c>
+      <c r="N19">
+        <v>1.000835382274658</v>
+      </c>
+      <c r="O19">
+        <v>1.000965330653316</v>
+      </c>
+      <c r="P19">
+        <v>1.000371280843991</v>
+      </c>
+      <c r="Q19">
+        <v>1.000371280843991</v>
+      </c>
+      <c r="R19">
+        <v>1.000139230128657</v>
+      </c>
+      <c r="S19">
+        <v>1.000139230128657</v>
+      </c>
+      <c r="T19">
+        <v>1.000049503194482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999997520634458</v>
+      </c>
+      <c r="D20">
+        <v>1.000000989952287</v>
+      </c>
+      <c r="E20">
+        <v>0.9999997520634458</v>
+      </c>
+      <c r="F20">
+        <v>1.000000989952287</v>
+      </c>
+      <c r="G20">
+        <v>0.9999997520634458</v>
+      </c>
+      <c r="H20">
+        <v>0.9999997520634458</v>
+      </c>
+      <c r="I20">
+        <v>0.9999993392320786</v>
+      </c>
+      <c r="J20">
+        <v>1.000000544720528</v>
+      </c>
+      <c r="K20">
+        <v>0.9999997520634458</v>
+      </c>
+      <c r="L20">
+        <v>0.9999997520634458</v>
+      </c>
+      <c r="M20">
+        <v>1.000000371007866</v>
+      </c>
+      <c r="N20">
+        <v>1.000000371007866</v>
+      </c>
+      <c r="O20">
+        <v>1.000000428912087</v>
+      </c>
+      <c r="P20">
+        <v>1.000000164693059</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000164693059</v>
+      </c>
+      <c r="R20">
+        <v>1.000000061535656</v>
+      </c>
+      <c r="S20">
+        <v>1.000000061535656</v>
+      </c>
+      <c r="T20">
+        <v>1.000000021682539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999947510594367</v>
+      </c>
+      <c r="D21">
+        <v>1.000020994046401</v>
+      </c>
+      <c r="E21">
+        <v>0.9999947510594367</v>
+      </c>
+      <c r="F21">
+        <v>1.000020994046401</v>
+      </c>
+      <c r="G21">
+        <v>0.9999947510594367</v>
+      </c>
+      <c r="H21">
+        <v>0.9999947510594367</v>
+      </c>
+      <c r="I21">
+        <v>0.9999860027497639</v>
+      </c>
+      <c r="J21">
+        <v>1.000011547400902</v>
+      </c>
+      <c r="K21">
+        <v>0.9999947510594367</v>
+      </c>
+      <c r="L21">
+        <v>0.9999947510594367</v>
+      </c>
+      <c r="M21">
+        <v>1.000007872552919</v>
+      </c>
+      <c r="N21">
+        <v>1.000007872552919</v>
+      </c>
+      <c r="O21">
+        <v>1.000009097502247</v>
+      </c>
+      <c r="P21">
+        <v>1.000003498721758</v>
+      </c>
+      <c r="Q21">
+        <v>1.000003498721758</v>
+      </c>
+      <c r="R21">
+        <v>1.000001311806178</v>
+      </c>
+      <c r="S21">
+        <v>1.000001311806178</v>
+      </c>
+      <c r="T21">
+        <v>1.000000466229229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999815202614994</v>
+      </c>
+      <c r="D22">
+        <v>1.000073918526963</v>
+      </c>
+      <c r="E22">
+        <v>0.9999815202614994</v>
+      </c>
+      <c r="F22">
+        <v>1.000073918526963</v>
+      </c>
+      <c r="G22">
+        <v>0.9999815202614994</v>
+      </c>
+      <c r="H22">
+        <v>0.9999815202614994</v>
+      </c>
+      <c r="I22">
+        <v>0.9999507242358527</v>
+      </c>
+      <c r="J22">
+        <v>1.000040655595972</v>
+      </c>
+      <c r="K22">
+        <v>0.9999815202614994</v>
+      </c>
+      <c r="L22">
+        <v>0.9999815202614994</v>
+      </c>
+      <c r="M22">
+        <v>1.000027719394231</v>
+      </c>
+      <c r="N22">
+        <v>1.000027719394231</v>
+      </c>
+      <c r="O22">
+        <v>1.000032031461478</v>
+      </c>
+      <c r="P22">
+        <v>1.000012319683321</v>
+      </c>
+      <c r="Q22">
+        <v>1.000012319683321</v>
+      </c>
+      <c r="R22">
+        <v>1.000004619827865</v>
+      </c>
+      <c r="S22">
+        <v>1.000004619827865</v>
+      </c>
+      <c r="T22">
+        <v>1.000001643190548</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.9999567076034642</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>1.000173168260753</v>
       </c>
-      <c r="E19">
+      <c r="E23">
         <v>0.9999567076034642</v>
       </c>
-      <c r="F19">
+      <c r="F23">
+        <v>1.000173168260753</v>
+      </c>
+      <c r="G23">
         <v>0.9999567076034642</v>
       </c>
-      <c r="G19">
+      <c r="H23">
+        <v>0.9999567076034642</v>
+      </c>
+      <c r="I23">
         <v>0.9998845531227497</v>
       </c>
-      <c r="H19">
+      <c r="J23">
         <v>1.000095246240853</v>
       </c>
-      <c r="I19">
+      <c r="K23">
         <v>0.9999567076034642</v>
       </c>
-      <c r="J19">
-        <v>1.000173168260753</v>
-      </c>
-      <c r="K19">
+      <c r="L23">
         <v>0.9999567076034642</v>
       </c>
-      <c r="L19">
-        <v>0.9999567076034642</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.000064937932108</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.000064937932108</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.00007504070169</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.000028861155894</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000028861155894</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000010822767786</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000010822767786</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000003848405791</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW45.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.999939978734995</v>
+        <v>0.9994293096613812</v>
       </c>
       <c r="D3">
-        <v>1.000240083850282</v>
+        <v>1.002282759510087</v>
       </c>
       <c r="E3">
-        <v>0.999939978734995</v>
+        <v>0.9994293096613812</v>
       </c>
       <c r="F3">
-        <v>1.000240083850282</v>
+        <v>1.002282759510087</v>
       </c>
       <c r="G3">
-        <v>0.999939978734995</v>
+        <v>0.9994293096613812</v>
       </c>
       <c r="H3">
-        <v>0.999939978734995</v>
+        <v>0.9994293096613812</v>
       </c>
       <c r="I3">
-        <v>0.9998399428970202</v>
+        <v>0.9984781585590764</v>
       </c>
       <c r="J3">
-        <v>1.000132046875857</v>
+        <v>1.001255516981271</v>
       </c>
       <c r="K3">
-        <v>0.999939978734995</v>
+        <v>0.9994293096613812</v>
       </c>
       <c r="L3">
-        <v>0.999939978734995</v>
+        <v>0.9994293096613812</v>
       </c>
       <c r="M3">
-        <v>1.000090031292638</v>
+        <v>1.000856034585734</v>
       </c>
       <c r="N3">
-        <v>1.000090031292638</v>
+        <v>1.000856034585734</v>
       </c>
       <c r="O3">
-        <v>1.000104036487045</v>
+        <v>1.000989195384246</v>
       </c>
       <c r="P3">
-        <v>1.000040013773424</v>
+        <v>1.00038045961095</v>
       </c>
       <c r="Q3">
-        <v>1.000040013773424</v>
+        <v>1.00038045961095</v>
       </c>
       <c r="R3">
-        <v>1.000015005013817</v>
+        <v>1.000142672123558</v>
       </c>
       <c r="S3">
-        <v>1.000015005013817</v>
+        <v>1.000142672123558</v>
       </c>
       <c r="T3">
-        <v>1.000005334971357</v>
+        <v>1.000050727339096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9998841291518948</v>
+        <v>0.9994544671338041</v>
       </c>
       <c r="D4">
-        <v>1.000463478719259</v>
+        <v>1.002182129797799</v>
       </c>
       <c r="E4">
-        <v>0.9998841291518948</v>
+        <v>0.9994544671338041</v>
       </c>
       <c r="F4">
-        <v>1.000463478719259</v>
+        <v>1.002182129797799</v>
       </c>
       <c r="G4">
-        <v>0.9998841291518948</v>
+        <v>0.9994544671338041</v>
       </c>
       <c r="H4">
-        <v>0.9998841291518948</v>
+        <v>0.9994544671338041</v>
       </c>
       <c r="I4">
-        <v>0.999691011295459</v>
+        <v>0.9985452454221033</v>
       </c>
       <c r="J4">
-        <v>1.00025491493787</v>
+        <v>1.001200170614048</v>
       </c>
       <c r="K4">
-        <v>0.9998841291518948</v>
+        <v>0.9994544671338041</v>
       </c>
       <c r="L4">
-        <v>0.9998841291518948</v>
+        <v>0.9994544671338041</v>
       </c>
       <c r="M4">
-        <v>1.000173803935577</v>
+        <v>1.000818298465802</v>
       </c>
       <c r="N4">
-        <v>1.000173803935577</v>
+        <v>1.000818298465802</v>
       </c>
       <c r="O4">
-        <v>1.000200840936341</v>
+        <v>1.000945589181884</v>
       </c>
       <c r="P4">
-        <v>1.00007724567435</v>
+        <v>1.000363688021803</v>
       </c>
       <c r="Q4">
-        <v>1.00007724567435</v>
+        <v>1.000363688021803</v>
       </c>
       <c r="R4">
-        <v>1.000028966543736</v>
+        <v>1.000136382799803</v>
       </c>
       <c r="S4">
-        <v>1.000028966543736</v>
+        <v>1.000136382799803</v>
       </c>
       <c r="T4">
-        <v>1.000010298734712</v>
+        <v>1.000048491205894</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9997779523477128</v>
+        <v>0.9993815513207541</v>
       </c>
       <c r="D5">
-        <v>1.00088819971809</v>
+        <v>1.002473789784366</v>
       </c>
       <c r="E5">
-        <v>0.9997779523477128</v>
+        <v>0.9993815513207541</v>
       </c>
       <c r="F5">
-        <v>1.00088819971809</v>
+        <v>1.002473789784366</v>
       </c>
       <c r="G5">
-        <v>0.9997779523477128</v>
+        <v>0.9993815513207541</v>
       </c>
       <c r="H5">
-        <v>0.9997779523477128</v>
+        <v>0.9993815513207541</v>
       </c>
       <c r="I5">
-        <v>0.9994078658345956</v>
+        <v>0.9983508033153641</v>
       </c>
       <c r="J5">
-        <v>1.000488514958499</v>
+        <v>1.001360586603775</v>
       </c>
       <c r="K5">
-        <v>0.9997779523477128</v>
+        <v>0.9993815513207541</v>
       </c>
       <c r="L5">
-        <v>0.9997779523477128</v>
+        <v>0.9993815513207541</v>
       </c>
       <c r="M5">
-        <v>1.000333076032901</v>
+        <v>1.00092767055256</v>
       </c>
       <c r="N5">
-        <v>1.000333076032901</v>
+        <v>1.00092767055256</v>
       </c>
       <c r="O5">
-        <v>1.000384889008101</v>
+        <v>1.001071975902965</v>
       </c>
       <c r="P5">
-        <v>1.000148034804505</v>
+        <v>1.000412297475291</v>
       </c>
       <c r="Q5">
-        <v>1.000148034804505</v>
+        <v>1.000412297475291</v>
       </c>
       <c r="R5">
-        <v>1.000055514190307</v>
+        <v>1.000154610936657</v>
       </c>
       <c r="S5">
-        <v>1.000055514190307</v>
+        <v>1.000154610936657</v>
       </c>
       <c r="T5">
-        <v>1.000019739592387</v>
+        <v>1.000054972277628</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9996743159300435</v>
+        <v>0.9993369783522731</v>
       </c>
       <c r="D6">
-        <v>1.001302707281004</v>
+        <v>1.002652070227272</v>
       </c>
       <c r="E6">
-        <v>0.9996743159300435</v>
+        <v>0.9993369783522731</v>
       </c>
       <c r="F6">
-        <v>1.001302707281004</v>
+        <v>1.002652070227272</v>
       </c>
       <c r="G6">
-        <v>0.9996743159300435</v>
+        <v>0.9993369783522731</v>
       </c>
       <c r="H6">
-        <v>0.9996743159300435</v>
+        <v>0.9993369783522731</v>
       </c>
       <c r="I6">
-        <v>0.9991315239201644</v>
+        <v>0.9982319451704538</v>
       </c>
       <c r="J6">
-        <v>1.000716498427485</v>
+        <v>1.001458639034091</v>
       </c>
       <c r="K6">
-        <v>0.9996743159300435</v>
+        <v>0.9993369783522731</v>
       </c>
       <c r="L6">
-        <v>0.9996743159300435</v>
+        <v>0.9993369783522731</v>
       </c>
       <c r="M6">
-        <v>1.000488511605524</v>
+        <v>1.000994524289773</v>
       </c>
       <c r="N6">
-        <v>1.000488511605524</v>
+        <v>1.000994524289773</v>
       </c>
       <c r="O6">
-        <v>1.000564507212844</v>
+        <v>1.001149229204545</v>
       </c>
       <c r="P6">
-        <v>1.00021711304703</v>
+        <v>1.000442008977273</v>
       </c>
       <c r="Q6">
-        <v>1.00021711304703</v>
+        <v>1.000442008977273</v>
       </c>
       <c r="R6">
-        <v>1.000081413767784</v>
+        <v>1.000165751321023</v>
       </c>
       <c r="S6">
-        <v>1.000081413767784</v>
+        <v>1.000165751321023</v>
       </c>
       <c r="T6">
-        <v>1.000028946236464</v>
+        <v>1.000058931581439</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999965467029464</v>
+        <v>1.004150506861297</v>
       </c>
       <c r="D7">
-        <v>1.000013811488774</v>
+        <v>0.9833979937688475</v>
       </c>
       <c r="E7">
-        <v>0.9999965467029464</v>
+        <v>1.004150506861297</v>
       </c>
       <c r="F7">
-        <v>1.000013811488774</v>
+        <v>0.9833979937688475</v>
       </c>
       <c r="G7">
-        <v>0.9999965467029464</v>
+        <v>1.004150506861297</v>
       </c>
       <c r="H7">
-        <v>0.9999965467029464</v>
+        <v>1.004150506861297</v>
       </c>
       <c r="I7">
-        <v>0.9999907915894506</v>
+        <v>1.011068004559263</v>
       </c>
       <c r="J7">
-        <v>1.000007596414351</v>
+        <v>0.9908689041321292</v>
       </c>
       <c r="K7">
-        <v>0.9999965467029464</v>
+        <v>1.004150506861297</v>
       </c>
       <c r="L7">
-        <v>0.9999965467029464</v>
+        <v>1.004150506861297</v>
       </c>
       <c r="M7">
-        <v>1.00000517909586</v>
+        <v>0.993774250315072</v>
       </c>
       <c r="N7">
-        <v>1.00000517909586</v>
+        <v>0.993774250315072</v>
       </c>
       <c r="O7">
-        <v>1.000005984868691</v>
+        <v>0.9928058015874245</v>
       </c>
       <c r="P7">
-        <v>1.000002301631556</v>
+        <v>0.997233002497147</v>
       </c>
       <c r="Q7">
-        <v>1.000002301631556</v>
+        <v>0.997233002497147</v>
       </c>
       <c r="R7">
-        <v>1.000000862899403</v>
+        <v>0.9989623785881844</v>
       </c>
       <c r="S7">
-        <v>1.000000862899403</v>
+        <v>0.9989623785881844</v>
       </c>
       <c r="T7">
-        <v>1.000000306600236</v>
+        <v>0.9996310705073549</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999940165779525</v>
+        <v>1.004123482477644</v>
       </c>
       <c r="D8">
-        <v>1.000023932132427</v>
+        <v>0.9835060910044668</v>
       </c>
       <c r="E8">
-        <v>0.9999940165779525</v>
+        <v>1.004123482477644</v>
       </c>
       <c r="F8">
-        <v>1.000023932132427</v>
+        <v>0.9835060910044668</v>
       </c>
       <c r="G8">
-        <v>0.9999940165779525</v>
+        <v>1.004123482477644</v>
       </c>
       <c r="H8">
-        <v>0.9999940165779525</v>
+        <v>1.004123482477644</v>
       </c>
       <c r="I8">
-        <v>0.9999840444253036</v>
+        <v>1.010995939705333</v>
       </c>
       <c r="J8">
-        <v>1.000013162732351</v>
+        <v>0.9909283574945952</v>
       </c>
       <c r="K8">
-        <v>0.9999940165779525</v>
+        <v>1.004123482477644</v>
       </c>
       <c r="L8">
-        <v>0.9999940165779525</v>
+        <v>1.004123482477644</v>
       </c>
       <c r="M8">
-        <v>1.00000897435519</v>
+        <v>0.9938147867410553</v>
       </c>
       <c r="N8">
-        <v>1.00000897435519</v>
+        <v>0.9938147867410553</v>
       </c>
       <c r="O8">
-        <v>1.00001037048091</v>
+        <v>0.9928526436589019</v>
       </c>
       <c r="P8">
-        <v>1.000003988429444</v>
+        <v>0.9972510186532514</v>
       </c>
       <c r="Q8">
-        <v>1.000003988429444</v>
+        <v>0.9972510186532514</v>
       </c>
       <c r="R8">
-        <v>1.000001495466571</v>
+        <v>0.9989691346093494</v>
       </c>
       <c r="S8">
-        <v>1.000001495466571</v>
+        <v>0.9989691346093494</v>
       </c>
       <c r="T8">
-        <v>1.00000053150399</v>
+        <v>0.999633472606221</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999923323923063</v>
+        <v>1.004098133539499</v>
       </c>
       <c r="D9">
-        <v>1.000030667399485</v>
+        <v>0.9836074864949707</v>
       </c>
       <c r="E9">
-        <v>0.9999923323923063</v>
+        <v>1.004098133539499</v>
       </c>
       <c r="F9">
-        <v>1.000030667399485</v>
+        <v>0.9836074864949707</v>
       </c>
       <c r="G9">
-        <v>0.9999923323923063</v>
+        <v>1.004098133539499</v>
       </c>
       <c r="H9">
-        <v>0.9999923323923063</v>
+        <v>1.004098133539499</v>
       </c>
       <c r="I9">
-        <v>0.9999795545242113</v>
+        <v>1.010928342617373</v>
       </c>
       <c r="J9">
-        <v>1.000016866830196</v>
+        <v>0.9909841248865406</v>
       </c>
       <c r="K9">
-        <v>0.9999923323923063</v>
+        <v>1.004098133539499</v>
       </c>
       <c r="L9">
-        <v>0.9999923323923063</v>
+        <v>1.004098133539499</v>
       </c>
       <c r="M9">
-        <v>1.000011499895896</v>
+        <v>0.9938528100172349</v>
       </c>
       <c r="N9">
-        <v>1.000011499895896</v>
+        <v>0.9938528100172349</v>
       </c>
       <c r="O9">
-        <v>1.000013288873996</v>
+        <v>0.9928965816403368</v>
       </c>
       <c r="P9">
-        <v>1.000005110728033</v>
+        <v>0.9972679178579896</v>
       </c>
       <c r="Q9">
-        <v>1.000005110728033</v>
+        <v>0.9972679178579896</v>
       </c>
       <c r="R9">
-        <v>1.000001916144101</v>
+        <v>0.998975471778367</v>
       </c>
       <c r="S9">
-        <v>1.000001916144101</v>
+        <v>0.998975471778367</v>
       </c>
       <c r="T9">
-        <v>1.000000680988469</v>
+        <v>0.9996357257695637</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999826150351651</v>
+        <v>1.004059120832739</v>
       </c>
       <c r="D10">
-        <v>1.000069536772217</v>
+        <v>0.9837635368240071</v>
       </c>
       <c r="E10">
-        <v>0.9999826150351651</v>
+        <v>1.004059120832739</v>
       </c>
       <c r="F10">
-        <v>1.000069536772217</v>
+        <v>0.9837635368240071</v>
       </c>
       <c r="G10">
-        <v>0.9999826150351651</v>
+        <v>1.004059120832739</v>
       </c>
       <c r="H10">
-        <v>0.9999826150351651</v>
+        <v>1.004059120832739</v>
       </c>
       <c r="I10">
-        <v>0.9999536415098369</v>
+        <v>1.010824309265107</v>
       </c>
       <c r="J10">
-        <v>1.000038245015128</v>
+        <v>0.9910699522646299</v>
       </c>
       <c r="K10">
-        <v>0.9999826150351651</v>
+        <v>1.004059120832739</v>
       </c>
       <c r="L10">
-        <v>0.9999826150351651</v>
+        <v>1.004059120832739</v>
       </c>
       <c r="M10">
-        <v>1.000026075903691</v>
+        <v>0.9939113288283727</v>
       </c>
       <c r="N10">
-        <v>1.000026075903691</v>
+        <v>0.9939113288283727</v>
       </c>
       <c r="O10">
-        <v>1.00003013227417</v>
+        <v>0.9929642033071251</v>
       </c>
       <c r="P10">
-        <v>1.000011588947516</v>
+        <v>0.9972939261631613</v>
       </c>
       <c r="Q10">
-        <v>1.000011588947516</v>
+        <v>0.9972939261631613</v>
       </c>
       <c r="R10">
-        <v>1.000004345469428</v>
+        <v>0.9989852248305555</v>
       </c>
       <c r="S10">
-        <v>1.000004345469428</v>
+        <v>0.9989852248305555</v>
       </c>
       <c r="T10">
-        <v>1.00000154473378</v>
+        <v>0.9996391934753265</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999745078826879</v>
+        <v>0.9999520755324458</v>
       </c>
       <c r="D11">
-        <v>1.000101966219385</v>
+        <v>1.000191698661664</v>
       </c>
       <c r="E11">
-        <v>0.9999745078826879</v>
+        <v>0.9999520755324458</v>
       </c>
       <c r="F11">
-        <v>1.000101966219385</v>
+        <v>1.000191698661664</v>
       </c>
       <c r="G11">
-        <v>0.9999745078826879</v>
+        <v>0.9999520755324458</v>
       </c>
       <c r="H11">
-        <v>0.9999745078826879</v>
+        <v>0.9999520755324458</v>
       </c>
       <c r="I11">
-        <v>0.9999320225074123</v>
+        <v>0.9998722000333767</v>
       </c>
       <c r="J11">
-        <v>1.000056082172981</v>
+        <v>1.000105434957903</v>
       </c>
       <c r="K11">
-        <v>0.9999745078826879</v>
+        <v>0.9999520755324458</v>
       </c>
       <c r="L11">
-        <v>0.9999745078826879</v>
+        <v>0.9999520755324458</v>
       </c>
       <c r="M11">
-        <v>1.000038237051036</v>
+        <v>1.000071887097055</v>
       </c>
       <c r="N11">
-        <v>1.000038237051036</v>
+        <v>1.000071887097055</v>
       </c>
       <c r="O11">
-        <v>1.000044185425018</v>
+        <v>1.000083069717338</v>
       </c>
       <c r="P11">
-        <v>1.00001699399492</v>
+        <v>1.000031949908852</v>
       </c>
       <c r="Q11">
-        <v>1.00001699399492</v>
+        <v>1.000031949908852</v>
       </c>
       <c r="R11">
-        <v>1.000006372466862</v>
+        <v>1.00001198131475</v>
       </c>
       <c r="S11">
-        <v>1.000006372466862</v>
+        <v>1.00001198131475</v>
       </c>
       <c r="T11">
-        <v>1.000002265757974</v>
+        <v>1.000004260041713</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9997612421396281</v>
+        <v>0.999991965153015</v>
       </c>
       <c r="D12">
-        <v>1.000955018273049</v>
+        <v>1.000032138395263</v>
       </c>
       <c r="E12">
-        <v>0.9997612421396281</v>
+        <v>0.999991965153015</v>
       </c>
       <c r="F12">
-        <v>1.000955018273049</v>
+        <v>1.000032138395263</v>
       </c>
       <c r="G12">
-        <v>0.9997612421396281</v>
+        <v>0.999991965153015</v>
       </c>
       <c r="H12">
-        <v>0.9997612421396281</v>
+        <v>0.999991965153015</v>
       </c>
       <c r="I12">
-        <v>0.999363323984907</v>
+        <v>0.9999785736113553</v>
       </c>
       <c r="J12">
-        <v>1.000525256324738</v>
+        <v>1.00001767645107</v>
       </c>
       <c r="K12">
-        <v>0.9997612421396281</v>
+        <v>0.999991965153015</v>
       </c>
       <c r="L12">
-        <v>0.9997612421396281</v>
+        <v>0.999991965153015</v>
       </c>
       <c r="M12">
-        <v>1.000358130206339</v>
+        <v>1.000012051774139</v>
       </c>
       <c r="N12">
-        <v>1.000358130206339</v>
+        <v>1.000012051774139</v>
       </c>
       <c r="O12">
-        <v>1.000413838912472</v>
+        <v>1.000013926666449</v>
       </c>
       <c r="P12">
-        <v>1.000159167517435</v>
+        <v>1.000005356233764</v>
       </c>
       <c r="Q12">
-        <v>1.000159167517435</v>
+        <v>1.000005356233764</v>
       </c>
       <c r="R12">
-        <v>1.000059686172983</v>
+        <v>1.000002008463577</v>
       </c>
       <c r="S12">
-        <v>1.000059686172983</v>
+        <v>1.000002008463577</v>
       </c>
       <c r="T12">
-        <v>1.000021220833596</v>
+        <v>1.000000713986122</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9999366958598266</v>
+        <v>0.9999789502035565</v>
       </c>
       <c r="D13">
-        <v>1.000253224397818</v>
+        <v>1.000084204722493</v>
       </c>
       <c r="E13">
-        <v>0.9999366958598266</v>
+        <v>0.9999789502035565</v>
       </c>
       <c r="F13">
-        <v>1.000253224397818</v>
+        <v>1.000084204722493</v>
       </c>
       <c r="G13">
-        <v>0.9999366958598266</v>
+        <v>0.9999789502035565</v>
       </c>
       <c r="H13">
-        <v>0.9999366958598266</v>
+        <v>0.9999789502035565</v>
       </c>
       <c r="I13">
-        <v>0.9998311842094293</v>
+        <v>0.9999438627321172</v>
       </c>
       <c r="J13">
-        <v>1.000139273847505</v>
+        <v>1.000046315416381</v>
       </c>
       <c r="K13">
-        <v>0.9999366958598266</v>
+        <v>0.9999789502035565</v>
       </c>
       <c r="L13">
-        <v>0.9999366958598266</v>
+        <v>0.9999789502035565</v>
       </c>
       <c r="M13">
-        <v>1.000094960128822</v>
+        <v>1.000031577463025</v>
       </c>
       <c r="N13">
-        <v>1.000094960128822</v>
+        <v>1.000031577463025</v>
       </c>
       <c r="O13">
-        <v>1.000109731368383</v>
+        <v>1.000036490114143</v>
       </c>
       <c r="P13">
-        <v>1.00004220537249</v>
+        <v>1.000014035043202</v>
       </c>
       <c r="Q13">
-        <v>1.00004220537249</v>
+        <v>1.000014035043202</v>
       </c>
       <c r="R13">
-        <v>1.000015827994325</v>
+        <v>1.000005263833291</v>
       </c>
       <c r="S13">
-        <v>1.000015827994325</v>
+        <v>1.000005263833291</v>
       </c>
       <c r="T13">
-        <v>1.000005628339039</v>
+        <v>1.000001872246943</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9985150025448931</v>
+        <v>0.9998339597582278</v>
       </c>
       <c r="D14">
-        <v>1.005940009352896</v>
+        <v>1.000664156577106</v>
       </c>
       <c r="E14">
-        <v>0.9985150025448931</v>
+        <v>0.9998339597582278</v>
       </c>
       <c r="F14">
-        <v>1.005940009352896</v>
+        <v>1.000664156577106</v>
       </c>
       <c r="G14">
-        <v>0.9985150025448931</v>
+        <v>0.9998339597582278</v>
       </c>
       <c r="H14">
-        <v>0.9985150025448931</v>
+        <v>0.9998339597582278</v>
       </c>
       <c r="I14">
-        <v>0.9960400001423928</v>
+        <v>0.9995572267182274</v>
       </c>
       <c r="J14">
-        <v>1.003267005316075</v>
+        <v>1.00036529417983</v>
       </c>
       <c r="K14">
-        <v>0.9985150025448931</v>
+        <v>0.9998339597582278</v>
       </c>
       <c r="L14">
-        <v>0.9985150025448931</v>
+        <v>0.9998339597582278</v>
       </c>
       <c r="M14">
-        <v>1.002227505948895</v>
+        <v>1.000249058167667</v>
       </c>
       <c r="N14">
-        <v>1.002227505948895</v>
+        <v>1.000249058167667</v>
       </c>
       <c r="O14">
-        <v>1.002574005737954</v>
+        <v>1.000287803505054</v>
       </c>
       <c r="P14">
-        <v>1.000990004814227</v>
+        <v>1.000110692031187</v>
       </c>
       <c r="Q14">
-        <v>1.000990004814227</v>
+        <v>1.000110692031187</v>
       </c>
       <c r="R14">
-        <v>1.000371254246894</v>
+        <v>1.000041508962947</v>
       </c>
       <c r="S14">
-        <v>1.000371254246894</v>
+        <v>1.000041508962947</v>
       </c>
       <c r="T14">
-        <v>1.000132003741007</v>
+        <v>1.000014759458308</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9995934440292141</v>
+        <v>0.999939978734995</v>
       </c>
       <c r="D15">
-        <v>1.001626225666812</v>
+        <v>1.000240083850282</v>
       </c>
       <c r="E15">
-        <v>0.9995934440292141</v>
+        <v>0.999939978734995</v>
       </c>
       <c r="F15">
-        <v>1.001626225666812</v>
+        <v>1.000240083850282</v>
       </c>
       <c r="G15">
-        <v>0.9995934440292141</v>
+        <v>0.999939978734995</v>
       </c>
       <c r="H15">
-        <v>0.9995934440292141</v>
+        <v>0.999939978734995</v>
       </c>
       <c r="I15">
-        <v>0.9989158532468723</v>
+        <v>0.9998399428970202</v>
       </c>
       <c r="J15">
-        <v>1.000894412558137</v>
+        <v>1.000132046875857</v>
       </c>
       <c r="K15">
-        <v>0.9995934440292141</v>
+        <v>0.999939978734995</v>
       </c>
       <c r="L15">
-        <v>0.9995934440292141</v>
+        <v>0.999939978734995</v>
       </c>
       <c r="M15">
-        <v>1.000609834848013</v>
+        <v>1.000090031292638</v>
       </c>
       <c r="N15">
-        <v>1.000609834848013</v>
+        <v>1.000090031292638</v>
       </c>
       <c r="O15">
-        <v>1.000704694084721</v>
+        <v>1.000104036487045</v>
       </c>
       <c r="P15">
-        <v>1.000271037908413</v>
+        <v>1.000040013773424</v>
       </c>
       <c r="Q15">
-        <v>1.000271037908413</v>
+        <v>1.000040013773424</v>
       </c>
       <c r="R15">
-        <v>1.000101639438614</v>
+        <v>1.000015005013817</v>
       </c>
       <c r="S15">
-        <v>1.000101639438614</v>
+        <v>1.000015005013817</v>
       </c>
       <c r="T15">
-        <v>1.00003613725991</v>
+        <v>1.000005334971357</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9988298266163235</v>
+        <v>0.9998841291518948</v>
       </c>
       <c r="D16">
-        <v>1.004680704834066</v>
+        <v>1.000463478719259</v>
       </c>
       <c r="E16">
-        <v>0.9988298266163235</v>
+        <v>0.9998841291518948</v>
       </c>
       <c r="F16">
-        <v>1.004680704834066</v>
+        <v>1.000463478719259</v>
       </c>
       <c r="G16">
-        <v>0.9988298266163235</v>
+        <v>0.9998841291518948</v>
       </c>
       <c r="H16">
-        <v>0.9988298266163235</v>
+        <v>0.9998841291518948</v>
       </c>
       <c r="I16">
-        <v>0.9968795284733939</v>
+        <v>0.999691011295459</v>
       </c>
       <c r="J16">
-        <v>1.002574392880033</v>
+        <v>1.00025491493787</v>
       </c>
       <c r="K16">
-        <v>0.9988298266163235</v>
+        <v>0.9998841291518948</v>
       </c>
       <c r="L16">
-        <v>0.9988298266163235</v>
+        <v>0.9998841291518948</v>
       </c>
       <c r="M16">
-        <v>1.001755265725195</v>
+        <v>1.000173803935577</v>
       </c>
       <c r="N16">
-        <v>1.001755265725195</v>
+        <v>1.000173803935577</v>
       </c>
       <c r="O16">
-        <v>1.002028308110141</v>
+        <v>1.000200840936341</v>
       </c>
       <c r="P16">
-        <v>1.000780119355571</v>
+        <v>1.00007724567435</v>
       </c>
       <c r="Q16">
-        <v>1.000780119355571</v>
+        <v>1.00007724567435</v>
       </c>
       <c r="R16">
-        <v>1.000292546170759</v>
+        <v>1.000028966543736</v>
       </c>
       <c r="S16">
-        <v>1.000292546170759</v>
+        <v>1.000028966543736</v>
       </c>
       <c r="T16">
-        <v>1.000104017672744</v>
+        <v>1.000010298734712</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9990441842785251</v>
+        <v>0.9997779523477128</v>
       </c>
       <c r="D17">
-        <v>1.003823269905102</v>
+        <v>1.00088819971809</v>
       </c>
       <c r="E17">
-        <v>0.9990441842785251</v>
+        <v>0.9997779523477128</v>
       </c>
       <c r="F17">
-        <v>1.003823269905102</v>
+        <v>1.00088819971809</v>
       </c>
       <c r="G17">
-        <v>0.9990441842785251</v>
+        <v>0.9997779523477128</v>
       </c>
       <c r="H17">
-        <v>0.9990441842785251</v>
+        <v>0.9997779523477128</v>
       </c>
       <c r="I17">
-        <v>0.9974511519654514</v>
+        <v>0.9994078658345956</v>
       </c>
       <c r="J17">
-        <v>1.002102801662262</v>
+        <v>1.000488514958499</v>
       </c>
       <c r="K17">
-        <v>0.9990441842785251</v>
+        <v>0.9997779523477128</v>
       </c>
       <c r="L17">
-        <v>0.9990441842785251</v>
+        <v>0.9997779523477128</v>
       </c>
       <c r="M17">
-        <v>1.001433727091813</v>
+        <v>1.000333076032901</v>
       </c>
       <c r="N17">
-        <v>1.001433727091813</v>
+        <v>1.000333076032901</v>
       </c>
       <c r="O17">
-        <v>1.001656751948629</v>
+        <v>1.000384889008101</v>
       </c>
       <c r="P17">
-        <v>1.000637212820717</v>
+        <v>1.000148034804505</v>
       </c>
       <c r="Q17">
-        <v>1.000637212820717</v>
+        <v>1.000148034804505</v>
       </c>
       <c r="R17">
-        <v>1.000238955685169</v>
+        <v>1.000055514190307</v>
       </c>
       <c r="S17">
-        <v>1.000238955685169</v>
+        <v>1.000055514190307</v>
       </c>
       <c r="T17">
-        <v>1.000084962728065</v>
+        <v>1.000019739592387</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9994784713803272</v>
+        <v>0.9996743159300435</v>
       </c>
       <c r="D18">
-        <v>1.002086110636026</v>
+        <v>1.001302707281004</v>
       </c>
       <c r="E18">
-        <v>0.9994784713803272</v>
+        <v>0.9996743159300435</v>
       </c>
       <c r="F18">
-        <v>1.002086110636026</v>
+        <v>1.001302707281004</v>
       </c>
       <c r="G18">
-        <v>0.9994784713803272</v>
+        <v>0.9996743159300435</v>
       </c>
       <c r="H18">
-        <v>0.9994784713803272</v>
+        <v>0.9996743159300435</v>
       </c>
       <c r="I18">
-        <v>0.9986092575937182</v>
+        <v>0.9991315239201644</v>
       </c>
       <c r="J18">
-        <v>1.001147362630002</v>
+        <v>1.000716498427485</v>
       </c>
       <c r="K18">
-        <v>0.9994784713803272</v>
+        <v>0.9996743159300435</v>
       </c>
       <c r="L18">
-        <v>0.9994784713803272</v>
+        <v>0.9996743159300435</v>
       </c>
       <c r="M18">
-        <v>1.000782291008177</v>
+        <v>1.000488511605524</v>
       </c>
       <c r="N18">
-        <v>1.000782291008177</v>
+        <v>1.000488511605524</v>
       </c>
       <c r="O18">
-        <v>1.000903981548785</v>
+        <v>1.000564507212844</v>
       </c>
       <c r="P18">
-        <v>1.00034768446556</v>
+        <v>1.00021711304703</v>
       </c>
       <c r="Q18">
-        <v>1.00034768446556</v>
+        <v>1.00021711304703</v>
       </c>
       <c r="R18">
-        <v>1.000130381194252</v>
+        <v>1.000081413767784</v>
       </c>
       <c r="S18">
-        <v>1.000130381194252</v>
+        <v>1.000081413767784</v>
       </c>
       <c r="T18">
-        <v>1.000046357500121</v>
+        <v>1.000028946236464</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9994430779826561</v>
+        <v>0.9999965467029464</v>
       </c>
       <c r="D19">
-        <v>1.002227686566661</v>
+        <v>1.000013811488774</v>
       </c>
       <c r="E19">
-        <v>0.9994430779826561</v>
+        <v>0.9999965467029464</v>
       </c>
       <c r="F19">
-        <v>1.002227686566661</v>
+        <v>1.000013811488774</v>
       </c>
       <c r="G19">
-        <v>0.9994430779826561</v>
+        <v>0.9999965467029464</v>
       </c>
       <c r="H19">
-        <v>0.9994430779826561</v>
+        <v>0.9999965467029464</v>
       </c>
       <c r="I19">
-        <v>0.998514871241634</v>
+        <v>0.9999907915894506</v>
       </c>
       <c r="J19">
-        <v>1.001225227410632</v>
+        <v>1.000007596414351</v>
       </c>
       <c r="K19">
-        <v>0.9994430779826561</v>
+        <v>0.9999965467029464</v>
       </c>
       <c r="L19">
-        <v>0.9994430779826561</v>
+        <v>0.9999965467029464</v>
       </c>
       <c r="M19">
-        <v>1.000835382274658</v>
+        <v>1.00000517909586</v>
       </c>
       <c r="N19">
-        <v>1.000835382274658</v>
+        <v>1.00000517909586</v>
       </c>
       <c r="O19">
-        <v>1.000965330653316</v>
+        <v>1.000005984868691</v>
       </c>
       <c r="P19">
-        <v>1.000371280843991</v>
+        <v>1.000002301631556</v>
       </c>
       <c r="Q19">
-        <v>1.000371280843991</v>
+        <v>1.000002301631556</v>
       </c>
       <c r="R19">
-        <v>1.000139230128657</v>
+        <v>1.000000862899403</v>
       </c>
       <c r="S19">
-        <v>1.000139230128657</v>
+        <v>1.000000862899403</v>
       </c>
       <c r="T19">
-        <v>1.000049503194482</v>
+        <v>1.000000306600236</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999997520634458</v>
+        <v>0.9999940165779525</v>
       </c>
       <c r="D20">
-        <v>1.000000989952287</v>
+        <v>1.000023932132427</v>
       </c>
       <c r="E20">
-        <v>0.9999997520634458</v>
+        <v>0.9999940165779525</v>
       </c>
       <c r="F20">
-        <v>1.000000989952287</v>
+        <v>1.000023932132427</v>
       </c>
       <c r="G20">
-        <v>0.9999997520634458</v>
+        <v>0.9999940165779525</v>
       </c>
       <c r="H20">
-        <v>0.9999997520634458</v>
+        <v>0.9999940165779525</v>
       </c>
       <c r="I20">
-        <v>0.9999993392320786</v>
+        <v>0.9999840444253036</v>
       </c>
       <c r="J20">
-        <v>1.000000544720528</v>
+        <v>1.000013162732351</v>
       </c>
       <c r="K20">
-        <v>0.9999997520634458</v>
+        <v>0.9999940165779525</v>
       </c>
       <c r="L20">
-        <v>0.9999997520634458</v>
+        <v>0.9999940165779525</v>
       </c>
       <c r="M20">
-        <v>1.000000371007866</v>
+        <v>1.00000897435519</v>
       </c>
       <c r="N20">
-        <v>1.000000371007866</v>
+        <v>1.00000897435519</v>
       </c>
       <c r="O20">
-        <v>1.000000428912087</v>
+        <v>1.00001037048091</v>
       </c>
       <c r="P20">
-        <v>1.000000164693059</v>
+        <v>1.000003988429444</v>
       </c>
       <c r="Q20">
-        <v>1.000000164693059</v>
+        <v>1.000003988429444</v>
       </c>
       <c r="R20">
-        <v>1.000000061535656</v>
+        <v>1.000001495466571</v>
       </c>
       <c r="S20">
-        <v>1.000000061535656</v>
+        <v>1.000001495466571</v>
       </c>
       <c r="T20">
-        <v>1.000000021682539</v>
+        <v>1.00000053150399</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999947510594367</v>
+        <v>0.9999923323923063</v>
       </c>
       <c r="D21">
-        <v>1.000020994046401</v>
+        <v>1.000030667399485</v>
       </c>
       <c r="E21">
-        <v>0.9999947510594367</v>
+        <v>0.9999923323923063</v>
       </c>
       <c r="F21">
-        <v>1.000020994046401</v>
+        <v>1.000030667399485</v>
       </c>
       <c r="G21">
-        <v>0.9999947510594367</v>
+        <v>0.9999923323923063</v>
       </c>
       <c r="H21">
-        <v>0.9999947510594367</v>
+        <v>0.9999923323923063</v>
       </c>
       <c r="I21">
-        <v>0.9999860027497639</v>
+        <v>0.9999795545242113</v>
       </c>
       <c r="J21">
-        <v>1.000011547400902</v>
+        <v>1.000016866830196</v>
       </c>
       <c r="K21">
-        <v>0.9999947510594367</v>
+        <v>0.9999923323923063</v>
       </c>
       <c r="L21">
-        <v>0.9999947510594367</v>
+        <v>0.9999923323923063</v>
       </c>
       <c r="M21">
-        <v>1.000007872552919</v>
+        <v>1.000011499895896</v>
       </c>
       <c r="N21">
-        <v>1.000007872552919</v>
+        <v>1.000011499895896</v>
       </c>
       <c r="O21">
-        <v>1.000009097502247</v>
+        <v>1.000013288873996</v>
       </c>
       <c r="P21">
-        <v>1.000003498721758</v>
+        <v>1.000005110728033</v>
       </c>
       <c r="Q21">
-        <v>1.000003498721758</v>
+        <v>1.000005110728033</v>
       </c>
       <c r="R21">
-        <v>1.000001311806178</v>
+        <v>1.000001916144101</v>
       </c>
       <c r="S21">
-        <v>1.000001311806178</v>
+        <v>1.000001916144101</v>
       </c>
       <c r="T21">
-        <v>1.000000466229229</v>
+        <v>1.000000680988469</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999815202614994</v>
+        <v>0.9999826150351651</v>
       </c>
       <c r="D22">
-        <v>1.000073918526963</v>
+        <v>1.000069536772217</v>
       </c>
       <c r="E22">
-        <v>0.9999815202614994</v>
+        <v>0.9999826150351651</v>
       </c>
       <c r="F22">
-        <v>1.000073918526963</v>
+        <v>1.000069536772217</v>
       </c>
       <c r="G22">
-        <v>0.9999815202614994</v>
+        <v>0.9999826150351651</v>
       </c>
       <c r="H22">
-        <v>0.9999815202614994</v>
+        <v>0.9999826150351651</v>
       </c>
       <c r="I22">
-        <v>0.9999507242358527</v>
+        <v>0.9999536415098369</v>
       </c>
       <c r="J22">
-        <v>1.000040655595972</v>
+        <v>1.000038245015128</v>
       </c>
       <c r="K22">
-        <v>0.9999815202614994</v>
+        <v>0.9999826150351651</v>
       </c>
       <c r="L22">
-        <v>0.9999815202614994</v>
+        <v>0.9999826150351651</v>
       </c>
       <c r="M22">
-        <v>1.000027719394231</v>
+        <v>1.000026075903691</v>
       </c>
       <c r="N22">
-        <v>1.000027719394231</v>
+        <v>1.000026075903691</v>
       </c>
       <c r="O22">
-        <v>1.000032031461478</v>
+        <v>1.00003013227417</v>
       </c>
       <c r="P22">
-        <v>1.000012319683321</v>
+        <v>1.000011588947516</v>
       </c>
       <c r="Q22">
-        <v>1.000012319683321</v>
+        <v>1.000011588947516</v>
       </c>
       <c r="R22">
-        <v>1.000004619827865</v>
+        <v>1.000004345469428</v>
       </c>
       <c r="S22">
-        <v>1.000004619827865</v>
+        <v>1.000004345469428</v>
       </c>
       <c r="T22">
-        <v>1.000001643190548</v>
+        <v>1.00000154473378</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9999745078826879</v>
+      </c>
+      <c r="D23">
+        <v>1.000101966219385</v>
+      </c>
+      <c r="E23">
+        <v>0.9999745078826879</v>
+      </c>
+      <c r="F23">
+        <v>1.000101966219385</v>
+      </c>
+      <c r="G23">
+        <v>0.9999745078826879</v>
+      </c>
+      <c r="H23">
+        <v>0.9999745078826879</v>
+      </c>
+      <c r="I23">
+        <v>0.9999320225074123</v>
+      </c>
+      <c r="J23">
+        <v>1.000056082172981</v>
+      </c>
+      <c r="K23">
+        <v>0.9999745078826879</v>
+      </c>
+      <c r="L23">
+        <v>0.9999745078826879</v>
+      </c>
+      <c r="M23">
+        <v>1.000038237051036</v>
+      </c>
+      <c r="N23">
+        <v>1.000038237051036</v>
+      </c>
+      <c r="O23">
+        <v>1.000044185425018</v>
+      </c>
+      <c r="P23">
+        <v>1.00001699399492</v>
+      </c>
+      <c r="Q23">
+        <v>1.00001699399492</v>
+      </c>
+      <c r="R23">
+        <v>1.000006372466862</v>
+      </c>
+      <c r="S23">
+        <v>1.000006372466862</v>
+      </c>
+      <c r="T23">
+        <v>1.000002265757974</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9997612421396281</v>
+      </c>
+      <c r="D24">
+        <v>1.000955018273049</v>
+      </c>
+      <c r="E24">
+        <v>0.9997612421396281</v>
+      </c>
+      <c r="F24">
+        <v>1.000955018273049</v>
+      </c>
+      <c r="G24">
+        <v>0.9997612421396281</v>
+      </c>
+      <c r="H24">
+        <v>0.9997612421396281</v>
+      </c>
+      <c r="I24">
+        <v>0.999363323984907</v>
+      </c>
+      <c r="J24">
+        <v>1.000525256324738</v>
+      </c>
+      <c r="K24">
+        <v>0.9997612421396281</v>
+      </c>
+      <c r="L24">
+        <v>0.9997612421396281</v>
+      </c>
+      <c r="M24">
+        <v>1.000358130206339</v>
+      </c>
+      <c r="N24">
+        <v>1.000358130206339</v>
+      </c>
+      <c r="O24">
+        <v>1.000413838912472</v>
+      </c>
+      <c r="P24">
+        <v>1.000159167517435</v>
+      </c>
+      <c r="Q24">
+        <v>1.000159167517435</v>
+      </c>
+      <c r="R24">
+        <v>1.000059686172983</v>
+      </c>
+      <c r="S24">
+        <v>1.000059686172983</v>
+      </c>
+      <c r="T24">
+        <v>1.000021220833596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9999366958598266</v>
+      </c>
+      <c r="D25">
+        <v>1.000253224397818</v>
+      </c>
+      <c r="E25">
+        <v>0.9999366958598266</v>
+      </c>
+      <c r="F25">
+        <v>1.000253224397818</v>
+      </c>
+      <c r="G25">
+        <v>0.9999366958598266</v>
+      </c>
+      <c r="H25">
+        <v>0.9999366958598266</v>
+      </c>
+      <c r="I25">
+        <v>0.9998311842094293</v>
+      </c>
+      <c r="J25">
+        <v>1.000139273847505</v>
+      </c>
+      <c r="K25">
+        <v>0.9999366958598266</v>
+      </c>
+      <c r="L25">
+        <v>0.9999366958598266</v>
+      </c>
+      <c r="M25">
+        <v>1.000094960128822</v>
+      </c>
+      <c r="N25">
+        <v>1.000094960128822</v>
+      </c>
+      <c r="O25">
+        <v>1.000109731368383</v>
+      </c>
+      <c r="P25">
+        <v>1.00004220537249</v>
+      </c>
+      <c r="Q25">
+        <v>1.00004220537249</v>
+      </c>
+      <c r="R25">
+        <v>1.000015827994325</v>
+      </c>
+      <c r="S25">
+        <v>1.000015827994325</v>
+      </c>
+      <c r="T25">
+        <v>1.000005628339039</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9985150025448931</v>
+      </c>
+      <c r="D26">
+        <v>1.005940009352896</v>
+      </c>
+      <c r="E26">
+        <v>0.9985150025448931</v>
+      </c>
+      <c r="F26">
+        <v>1.005940009352896</v>
+      </c>
+      <c r="G26">
+        <v>0.9985150025448931</v>
+      </c>
+      <c r="H26">
+        <v>0.9985150025448931</v>
+      </c>
+      <c r="I26">
+        <v>0.9960400001423928</v>
+      </c>
+      <c r="J26">
+        <v>1.003267005316075</v>
+      </c>
+      <c r="K26">
+        <v>0.9985150025448931</v>
+      </c>
+      <c r="L26">
+        <v>0.9985150025448931</v>
+      </c>
+      <c r="M26">
+        <v>1.002227505948895</v>
+      </c>
+      <c r="N26">
+        <v>1.002227505948895</v>
+      </c>
+      <c r="O26">
+        <v>1.002574005737954</v>
+      </c>
+      <c r="P26">
+        <v>1.000990004814227</v>
+      </c>
+      <c r="Q26">
+        <v>1.000990004814227</v>
+      </c>
+      <c r="R26">
+        <v>1.000371254246894</v>
+      </c>
+      <c r="S26">
+        <v>1.000371254246894</v>
+      </c>
+      <c r="T26">
+        <v>1.000132003741007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9995934440292141</v>
+      </c>
+      <c r="D27">
+        <v>1.001626225666812</v>
+      </c>
+      <c r="E27">
+        <v>0.9995934440292141</v>
+      </c>
+      <c r="F27">
+        <v>1.001626225666812</v>
+      </c>
+      <c r="G27">
+        <v>0.9995934440292141</v>
+      </c>
+      <c r="H27">
+        <v>0.9995934440292141</v>
+      </c>
+      <c r="I27">
+        <v>0.9989158532468723</v>
+      </c>
+      <c r="J27">
+        <v>1.000894412558137</v>
+      </c>
+      <c r="K27">
+        <v>0.9995934440292141</v>
+      </c>
+      <c r="L27">
+        <v>0.9995934440292141</v>
+      </c>
+      <c r="M27">
+        <v>1.000609834848013</v>
+      </c>
+      <c r="N27">
+        <v>1.000609834848013</v>
+      </c>
+      <c r="O27">
+        <v>1.000704694084721</v>
+      </c>
+      <c r="P27">
+        <v>1.000271037908413</v>
+      </c>
+      <c r="Q27">
+        <v>1.000271037908413</v>
+      </c>
+      <c r="R27">
+        <v>1.000101639438614</v>
+      </c>
+      <c r="S27">
+        <v>1.000101639438614</v>
+      </c>
+      <c r="T27">
+        <v>1.00003613725991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9988298266163235</v>
+      </c>
+      <c r="D28">
+        <v>1.004680704834066</v>
+      </c>
+      <c r="E28">
+        <v>0.9988298266163235</v>
+      </c>
+      <c r="F28">
+        <v>1.004680704834066</v>
+      </c>
+      <c r="G28">
+        <v>0.9988298266163235</v>
+      </c>
+      <c r="H28">
+        <v>0.9988298266163235</v>
+      </c>
+      <c r="I28">
+        <v>0.9968795284733939</v>
+      </c>
+      <c r="J28">
+        <v>1.002574392880033</v>
+      </c>
+      <c r="K28">
+        <v>0.9988298266163235</v>
+      </c>
+      <c r="L28">
+        <v>0.9988298266163235</v>
+      </c>
+      <c r="M28">
+        <v>1.001755265725195</v>
+      </c>
+      <c r="N28">
+        <v>1.001755265725195</v>
+      </c>
+      <c r="O28">
+        <v>1.002028308110141</v>
+      </c>
+      <c r="P28">
+        <v>1.000780119355571</v>
+      </c>
+      <c r="Q28">
+        <v>1.000780119355571</v>
+      </c>
+      <c r="R28">
+        <v>1.000292546170759</v>
+      </c>
+      <c r="S28">
+        <v>1.000292546170759</v>
+      </c>
+      <c r="T28">
+        <v>1.000104017672744</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9990441842785251</v>
+      </c>
+      <c r="D29">
+        <v>1.003823269905102</v>
+      </c>
+      <c r="E29">
+        <v>0.9990441842785251</v>
+      </c>
+      <c r="F29">
+        <v>1.003823269905102</v>
+      </c>
+      <c r="G29">
+        <v>0.9990441842785251</v>
+      </c>
+      <c r="H29">
+        <v>0.9990441842785251</v>
+      </c>
+      <c r="I29">
+        <v>0.9974511519654514</v>
+      </c>
+      <c r="J29">
+        <v>1.002102801662262</v>
+      </c>
+      <c r="K29">
+        <v>0.9990441842785251</v>
+      </c>
+      <c r="L29">
+        <v>0.9990441842785251</v>
+      </c>
+      <c r="M29">
+        <v>1.001433727091813</v>
+      </c>
+      <c r="N29">
+        <v>1.001433727091813</v>
+      </c>
+      <c r="O29">
+        <v>1.001656751948629</v>
+      </c>
+      <c r="P29">
+        <v>1.000637212820717</v>
+      </c>
+      <c r="Q29">
+        <v>1.000637212820717</v>
+      </c>
+      <c r="R29">
+        <v>1.000238955685169</v>
+      </c>
+      <c r="S29">
+        <v>1.000238955685169</v>
+      </c>
+      <c r="T29">
+        <v>1.000084962728065</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9994784713803272</v>
+      </c>
+      <c r="D30">
+        <v>1.002086110636026</v>
+      </c>
+      <c r="E30">
+        <v>0.9994784713803272</v>
+      </c>
+      <c r="F30">
+        <v>1.002086110636026</v>
+      </c>
+      <c r="G30">
+        <v>0.9994784713803272</v>
+      </c>
+      <c r="H30">
+        <v>0.9994784713803272</v>
+      </c>
+      <c r="I30">
+        <v>0.9986092575937182</v>
+      </c>
+      <c r="J30">
+        <v>1.001147362630002</v>
+      </c>
+      <c r="K30">
+        <v>0.9994784713803272</v>
+      </c>
+      <c r="L30">
+        <v>0.9994784713803272</v>
+      </c>
+      <c r="M30">
+        <v>1.000782291008177</v>
+      </c>
+      <c r="N30">
+        <v>1.000782291008177</v>
+      </c>
+      <c r="O30">
+        <v>1.000903981548785</v>
+      </c>
+      <c r="P30">
+        <v>1.00034768446556</v>
+      </c>
+      <c r="Q30">
+        <v>1.00034768446556</v>
+      </c>
+      <c r="R30">
+        <v>1.000130381194252</v>
+      </c>
+      <c r="S30">
+        <v>1.000130381194252</v>
+      </c>
+      <c r="T30">
+        <v>1.000046357500121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9994430779826561</v>
+      </c>
+      <c r="D31">
+        <v>1.002227686566661</v>
+      </c>
+      <c r="E31">
+        <v>0.9994430779826561</v>
+      </c>
+      <c r="F31">
+        <v>1.002227686566661</v>
+      </c>
+      <c r="G31">
+        <v>0.9994430779826561</v>
+      </c>
+      <c r="H31">
+        <v>0.9994430779826561</v>
+      </c>
+      <c r="I31">
+        <v>0.998514871241634</v>
+      </c>
+      <c r="J31">
+        <v>1.001225227410632</v>
+      </c>
+      <c r="K31">
+        <v>0.9994430779826561</v>
+      </c>
+      <c r="L31">
+        <v>0.9994430779826561</v>
+      </c>
+      <c r="M31">
+        <v>1.000835382274658</v>
+      </c>
+      <c r="N31">
+        <v>1.000835382274658</v>
+      </c>
+      <c r="O31">
+        <v>1.000965330653316</v>
+      </c>
+      <c r="P31">
+        <v>1.000371280843991</v>
+      </c>
+      <c r="Q31">
+        <v>1.000371280843991</v>
+      </c>
+      <c r="R31">
+        <v>1.000139230128657</v>
+      </c>
+      <c r="S31">
+        <v>1.000139230128657</v>
+      </c>
+      <c r="T31">
+        <v>1.000049503194482</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9986925832876716</v>
+      </c>
+      <c r="D32">
+        <v>1.005229682328767</v>
+      </c>
+      <c r="E32">
+        <v>0.9986925832876716</v>
+      </c>
+      <c r="F32">
+        <v>1.005229682328767</v>
+      </c>
+      <c r="G32">
+        <v>0.9986925832876716</v>
+      </c>
+      <c r="H32">
+        <v>0.9986925832876716</v>
+      </c>
+      <c r="I32">
+        <v>0.996513543835616</v>
+      </c>
+      <c r="J32">
+        <v>1.002876332465753</v>
+      </c>
+      <c r="K32">
+        <v>0.9986925832876716</v>
+      </c>
+      <c r="L32">
+        <v>0.9986925832876716</v>
+      </c>
+      <c r="M32">
+        <v>1.00196113280822</v>
+      </c>
+      <c r="N32">
+        <v>1.00196113280822</v>
+      </c>
+      <c r="O32">
+        <v>1.002266199360731</v>
+      </c>
+      <c r="P32">
+        <v>1.00087161630137</v>
+      </c>
+      <c r="Q32">
+        <v>1.00087161630137</v>
+      </c>
+      <c r="R32">
+        <v>1.000326858047946</v>
+      </c>
+      <c r="S32">
+        <v>1.000326858047946</v>
+      </c>
+      <c r="T32">
+        <v>1.000116218082192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.001692329473684</v>
+      </c>
+      <c r="D33">
+        <v>0.9932306668421054</v>
+      </c>
+      <c r="E33">
+        <v>1.001692329473684</v>
+      </c>
+      <c r="F33">
+        <v>0.9932306668421054</v>
+      </c>
+      <c r="G33">
+        <v>1.001692329473684</v>
+      </c>
+      <c r="H33">
+        <v>1.001692329473684</v>
+      </c>
+      <c r="I33">
+        <v>1.004512892631579</v>
+      </c>
+      <c r="J33">
+        <v>0.9962768642105263</v>
+      </c>
+      <c r="K33">
+        <v>1.001692329473684</v>
+      </c>
+      <c r="L33">
+        <v>1.001692329473684</v>
+      </c>
+      <c r="M33">
+        <v>0.9974614981578948</v>
+      </c>
+      <c r="N33">
+        <v>0.9974614981578948</v>
+      </c>
+      <c r="O33">
+        <v>0.9970666201754387</v>
+      </c>
+      <c r="P33">
+        <v>0.998871775263158</v>
+      </c>
+      <c r="Q33">
+        <v>0.998871775263158</v>
+      </c>
+      <c r="R33">
+        <v>0.9995769138157895</v>
+      </c>
+      <c r="S33">
+        <v>0.9995769138157895</v>
+      </c>
+      <c r="T33">
+        <v>0.9998495686842105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.003561802631579</v>
+      </c>
+      <c r="D34">
+        <v>0.985752805263158</v>
+      </c>
+      <c r="E34">
+        <v>1.003561802631579</v>
+      </c>
+      <c r="F34">
+        <v>0.985752805263158</v>
+      </c>
+      <c r="G34">
+        <v>1.003561802631579</v>
+      </c>
+      <c r="H34">
+        <v>1.003561802631579</v>
+      </c>
+      <c r="I34">
+        <v>1.009498128947369</v>
+      </c>
+      <c r="J34">
+        <v>0.9921640489473685</v>
+      </c>
+      <c r="K34">
+        <v>1.003561802631579</v>
+      </c>
+      <c r="L34">
+        <v>1.003561802631579</v>
+      </c>
+      <c r="M34">
+        <v>0.9946573039473685</v>
+      </c>
+      <c r="N34">
+        <v>0.9946573039473685</v>
+      </c>
+      <c r="O34">
+        <v>0.9938262189473686</v>
+      </c>
+      <c r="P34">
+        <v>0.9976254701754387</v>
+      </c>
+      <c r="Q34">
+        <v>0.9976254701754387</v>
+      </c>
+      <c r="R34">
+        <v>0.9991095532894737</v>
+      </c>
+      <c r="S34">
+        <v>0.9991095532894737</v>
+      </c>
+      <c r="T34">
+        <v>0.9996833985087719</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9978933331410141</v>
+      </c>
+      <c r="D35">
+        <v>1.008426647162626</v>
+      </c>
+      <c r="E35">
+        <v>0.9978933331410141</v>
+      </c>
+      <c r="F35">
+        <v>1.008426647162626</v>
+      </c>
+      <c r="G35">
+        <v>0.9978933331410141</v>
+      </c>
+      <c r="H35">
+        <v>0.9978933331410141</v>
+      </c>
+      <c r="I35">
+        <v>0.9943822196769943</v>
+      </c>
+      <c r="J35">
+        <v>1.004634650290072</v>
+      </c>
+      <c r="K35">
+        <v>0.9978933331410141</v>
+      </c>
+      <c r="L35">
+        <v>0.9978933331410141</v>
+      </c>
+      <c r="M35">
+        <v>1.00315999015182</v>
+      </c>
+      <c r="N35">
+        <v>1.00315999015182</v>
+      </c>
+      <c r="O35">
+        <v>1.003651543531237</v>
+      </c>
+      <c r="P35">
+        <v>1.001404437814885</v>
+      </c>
+      <c r="Q35">
+        <v>1.001404437814885</v>
+      </c>
+      <c r="R35">
+        <v>1.000526661646417</v>
+      </c>
+      <c r="S35">
+        <v>1.000526661646417</v>
+      </c>
+      <c r="T35">
+        <v>1.000187252758789</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999997520634458</v>
+      </c>
+      <c r="D36">
+        <v>1.000000989952287</v>
+      </c>
+      <c r="E36">
+        <v>0.9999997520634458</v>
+      </c>
+      <c r="F36">
+        <v>1.000000989952287</v>
+      </c>
+      <c r="G36">
+        <v>0.9999997520634458</v>
+      </c>
+      <c r="H36">
+        <v>0.9999997520634458</v>
+      </c>
+      <c r="I36">
+        <v>0.9999993392320786</v>
+      </c>
+      <c r="J36">
+        <v>1.000000544720528</v>
+      </c>
+      <c r="K36">
+        <v>0.9999997520634458</v>
+      </c>
+      <c r="L36">
+        <v>0.9999997520634458</v>
+      </c>
+      <c r="M36">
+        <v>1.000000371007866</v>
+      </c>
+      <c r="N36">
+        <v>1.000000371007866</v>
+      </c>
+      <c r="O36">
+        <v>1.000000428912087</v>
+      </c>
+      <c r="P36">
+        <v>1.000000164693059</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000164693059</v>
+      </c>
+      <c r="R36">
+        <v>1.000000061535656</v>
+      </c>
+      <c r="S36">
+        <v>1.000000061535656</v>
+      </c>
+      <c r="T36">
+        <v>1.000000021682539</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999947510594367</v>
+      </c>
+      <c r="D37">
+        <v>1.000020994046401</v>
+      </c>
+      <c r="E37">
+        <v>0.9999947510594367</v>
+      </c>
+      <c r="F37">
+        <v>1.000020994046401</v>
+      </c>
+      <c r="G37">
+        <v>0.9999947510594367</v>
+      </c>
+      <c r="H37">
+        <v>0.9999947510594367</v>
+      </c>
+      <c r="I37">
+        <v>0.9999860027497639</v>
+      </c>
+      <c r="J37">
+        <v>1.000011547400902</v>
+      </c>
+      <c r="K37">
+        <v>0.9999947510594367</v>
+      </c>
+      <c r="L37">
+        <v>0.9999947510594367</v>
+      </c>
+      <c r="M37">
+        <v>1.000007872552919</v>
+      </c>
+      <c r="N37">
+        <v>1.000007872552919</v>
+      </c>
+      <c r="O37">
+        <v>1.000009097502247</v>
+      </c>
+      <c r="P37">
+        <v>1.000003498721758</v>
+      </c>
+      <c r="Q37">
+        <v>1.000003498721758</v>
+      </c>
+      <c r="R37">
+        <v>1.000001311806178</v>
+      </c>
+      <c r="S37">
+        <v>1.000001311806178</v>
+      </c>
+      <c r="T37">
+        <v>1.000000466229229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9999815202614994</v>
+      </c>
+      <c r="D38">
+        <v>1.000073918526963</v>
+      </c>
+      <c r="E38">
+        <v>0.9999815202614994</v>
+      </c>
+      <c r="F38">
+        <v>1.000073918526963</v>
+      </c>
+      <c r="G38">
+        <v>0.9999815202614994</v>
+      </c>
+      <c r="H38">
+        <v>0.9999815202614994</v>
+      </c>
+      <c r="I38">
+        <v>0.9999507242358527</v>
+      </c>
+      <c r="J38">
+        <v>1.000040655595972</v>
+      </c>
+      <c r="K38">
+        <v>0.9999815202614994</v>
+      </c>
+      <c r="L38">
+        <v>0.9999815202614994</v>
+      </c>
+      <c r="M38">
+        <v>1.000027719394231</v>
+      </c>
+      <c r="N38">
+        <v>1.000027719394231</v>
+      </c>
+      <c r="O38">
+        <v>1.000032031461478</v>
+      </c>
+      <c r="P38">
+        <v>1.000012319683321</v>
+      </c>
+      <c r="Q38">
+        <v>1.000012319683321</v>
+      </c>
+      <c r="R38">
+        <v>1.000004619827865</v>
+      </c>
+      <c r="S38">
+        <v>1.000004619827865</v>
+      </c>
+      <c r="T38">
+        <v>1.000001643190548</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9999567076034642</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000173168260753</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9999567076034642</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000173168260753</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9999567076034642</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9999567076034642</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9998845531227497</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000095246240853</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9999567076034642</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9999567076034642</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000064937932108</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000064937932108</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.00007504070169</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000028861155894</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000028861155894</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000010822767786</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000010822767786</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000003848405791</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.001357298501013</v>
+      </c>
+      <c r="D40">
+        <v>0.9945708030909957</v>
+      </c>
+      <c r="E40">
+        <v>1.001357298501013</v>
+      </c>
+      <c r="F40">
+        <v>0.9945708030909957</v>
+      </c>
+      <c r="G40">
+        <v>1.001357298501013</v>
+      </c>
+      <c r="H40">
+        <v>1.001357298501013</v>
+      </c>
+      <c r="I40">
+        <v>1.003619464910636</v>
+      </c>
+      <c r="J40">
+        <v>0.9970139419953008</v>
+      </c>
+      <c r="K40">
+        <v>1.001357298501013</v>
+      </c>
+      <c r="L40">
+        <v>1.001357298501013</v>
+      </c>
+      <c r="M40">
+        <v>0.9979640507960045</v>
+      </c>
+      <c r="N40">
+        <v>0.9979640507960045</v>
+      </c>
+      <c r="O40">
+        <v>0.9976473478624367</v>
+      </c>
+      <c r="P40">
+        <v>0.9990951333643409</v>
+      </c>
+      <c r="Q40">
+        <v>0.9990951333643409</v>
+      </c>
+      <c r="R40">
+        <v>0.9996606746485089</v>
+      </c>
+      <c r="S40">
+        <v>0.9996606746485089</v>
+      </c>
+      <c r="T40">
+        <v>0.9998793509166622</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9999846355163865</v>
+      </c>
+      <c r="D41">
+        <v>1.000061457643238</v>
+      </c>
+      <c r="E41">
+        <v>0.9999846355163865</v>
+      </c>
+      <c r="F41">
+        <v>1.000061457643238</v>
+      </c>
+      <c r="G41">
+        <v>0.9999846355163865</v>
+      </c>
+      <c r="H41">
+        <v>0.9999846355163865</v>
+      </c>
+      <c r="I41">
+        <v>0.9999590258503536</v>
+      </c>
+      <c r="J41">
+        <v>1.000033802379172</v>
+      </c>
+      <c r="K41">
+        <v>0.9999846355163865</v>
+      </c>
+      <c r="L41">
+        <v>0.9999846355163865</v>
+      </c>
+      <c r="M41">
+        <v>1.000023046579812</v>
+      </c>
+      <c r="N41">
+        <v>1.000023046579812</v>
+      </c>
+      <c r="O41">
+        <v>1.000026631846265</v>
+      </c>
+      <c r="P41">
+        <v>1.000010242892004</v>
+      </c>
+      <c r="Q41">
+        <v>1.000010242892004</v>
+      </c>
+      <c r="R41">
+        <v>1.000003841048099</v>
+      </c>
+      <c r="S41">
+        <v>1.000003841048099</v>
+      </c>
+      <c r="T41">
+        <v>1.000001365403654</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9997821466889756</v>
+      </c>
+      <c r="D42">
+        <v>1.000871418362739</v>
+      </c>
+      <c r="E42">
+        <v>0.9997821466889756</v>
+      </c>
+      <c r="F42">
+        <v>1.000871418362739</v>
+      </c>
+      <c r="G42">
+        <v>0.9997821466889756</v>
+      </c>
+      <c r="H42">
+        <v>0.9997821466889756</v>
+      </c>
+      <c r="I42">
+        <v>0.9994190522827056</v>
+      </c>
+      <c r="J42">
+        <v>1.00047928171824</v>
+      </c>
+      <c r="K42">
+        <v>0.9997821466889756</v>
+      </c>
+      <c r="L42">
+        <v>0.9997821466889756</v>
+      </c>
+      <c r="M42">
+        <v>1.000326782525857</v>
+      </c>
+      <c r="N42">
+        <v>1.000326782525857</v>
+      </c>
+      <c r="O42">
+        <v>1.000377615589985</v>
+      </c>
+      <c r="P42">
+        <v>1.000145237246897</v>
+      </c>
+      <c r="Q42">
+        <v>1.000145237246897</v>
+      </c>
+      <c r="R42">
+        <v>1.000054464607416</v>
+      </c>
+      <c r="S42">
+        <v>1.000054464607416</v>
+      </c>
+      <c r="T42">
+        <v>1.000019365405102</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW45.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.999939978734995</v>
+        <v>0.9999940165779525</v>
       </c>
       <c r="D3">
-        <v>1.000240083850282</v>
+        <v>1.000023932132427</v>
       </c>
       <c r="E3">
-        <v>0.999939978734995</v>
+        <v>0.9999940165779525</v>
       </c>
       <c r="F3">
-        <v>0.999939978734995</v>
+        <v>1.000023932132427</v>
       </c>
       <c r="G3">
-        <v>0.9998399428970202</v>
+        <v>0.9999940165779525</v>
       </c>
       <c r="H3">
-        <v>1.000132046875857</v>
+        <v>0.9999940165779525</v>
       </c>
       <c r="I3">
-        <v>0.999939978734995</v>
+        <v>0.9999840444253036</v>
       </c>
       <c r="J3">
-        <v>1.000240083850282</v>
+        <v>1.000013162732351</v>
       </c>
       <c r="K3">
-        <v>0.999939978734995</v>
+        <v>0.9999940165779525</v>
       </c>
       <c r="L3">
-        <v>0.999939978734995</v>
+        <v>0.9999940165779525</v>
       </c>
       <c r="M3">
-        <v>1.000090031292638</v>
+        <v>1.00000897435519</v>
       </c>
       <c r="N3">
-        <v>1.000090031292638</v>
+        <v>1.00000897435519</v>
       </c>
       <c r="O3">
-        <v>1.000104036487045</v>
+        <v>1.00001037048091</v>
       </c>
       <c r="P3">
-        <v>1.000040013773424</v>
+        <v>1.000003988429444</v>
       </c>
       <c r="Q3">
-        <v>1.000040013773424</v>
+        <v>1.000003988429444</v>
       </c>
       <c r="R3">
-        <v>1.000015005013817</v>
+        <v>1.000001495466571</v>
       </c>
       <c r="S3">
-        <v>1.000015005013817</v>
+        <v>1.000001495466571</v>
       </c>
       <c r="T3">
-        <v>1.000005334971357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>1.00000053150399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9998841291518948</v>
+        <v>1.001357298501013</v>
       </c>
       <c r="D4">
-        <v>1.000463478719259</v>
+        <v>0.9945708030909957</v>
       </c>
       <c r="E4">
-        <v>0.9998841291518948</v>
+        <v>1.001357298501013</v>
       </c>
       <c r="F4">
-        <v>0.9998841291518948</v>
+        <v>0.9945708030909957</v>
       </c>
       <c r="G4">
-        <v>0.999691011295459</v>
+        <v>1.001357298501013</v>
       </c>
       <c r="H4">
-        <v>1.00025491493787</v>
+        <v>1.001357298501013</v>
       </c>
       <c r="I4">
-        <v>0.9998841291518948</v>
+        <v>1.003619464910636</v>
       </c>
       <c r="J4">
-        <v>1.000463478719259</v>
+        <v>0.9970139419953008</v>
       </c>
       <c r="K4">
-        <v>0.9998841291518948</v>
+        <v>1.001357298501013</v>
       </c>
       <c r="L4">
-        <v>0.9998841291518948</v>
+        <v>1.001357298501013</v>
       </c>
       <c r="M4">
-        <v>1.000173803935577</v>
+        <v>0.9979640507960045</v>
       </c>
       <c r="N4">
-        <v>1.000173803935577</v>
+        <v>0.9979640507960045</v>
       </c>
       <c r="O4">
-        <v>1.000200840936341</v>
+        <v>0.9976473478624367</v>
       </c>
       <c r="P4">
-        <v>1.00007724567435</v>
+        <v>0.9990951333643409</v>
       </c>
       <c r="Q4">
-        <v>1.00007724567435</v>
+        <v>0.9990951333643409</v>
       </c>
       <c r="R4">
-        <v>1.000028966543736</v>
+        <v>0.9996606746485089</v>
       </c>
       <c r="S4">
-        <v>1.000028966543736</v>
+        <v>0.9996606746485089</v>
       </c>
       <c r="T4">
-        <v>1.000010298734712</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>0.9998793509166622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9997779523477128</v>
+        <v>0.9994293096613812</v>
       </c>
       <c r="D5">
-        <v>1.00088819971809</v>
+        <v>1.002282759510087</v>
       </c>
       <c r="E5">
-        <v>0.9997779523477128</v>
+        <v>0.9994293096613812</v>
       </c>
       <c r="F5">
-        <v>0.9997779523477128</v>
+        <v>1.002282759510087</v>
       </c>
       <c r="G5">
-        <v>0.9994078658345956</v>
+        <v>0.9994293096613812</v>
       </c>
       <c r="H5">
-        <v>1.000488514958499</v>
+        <v>0.9994293096613812</v>
       </c>
       <c r="I5">
-        <v>0.9997779523477128</v>
+        <v>0.9984781585590764</v>
       </c>
       <c r="J5">
-        <v>1.00088819971809</v>
+        <v>1.001255516981271</v>
       </c>
       <c r="K5">
-        <v>0.9997779523477128</v>
+        <v>0.9994293096613812</v>
       </c>
       <c r="L5">
-        <v>0.9997779523477128</v>
+        <v>0.9994293096613812</v>
       </c>
       <c r="M5">
-        <v>1.000333076032901</v>
+        <v>1.000856034585734</v>
       </c>
       <c r="N5">
-        <v>1.000333076032901</v>
+        <v>1.000856034585734</v>
       </c>
       <c r="O5">
-        <v>1.000384889008101</v>
+        <v>1.000989195384246</v>
       </c>
       <c r="P5">
-        <v>1.000148034804505</v>
+        <v>1.00038045961095</v>
       </c>
       <c r="Q5">
-        <v>1.000148034804505</v>
+        <v>1.00038045961095</v>
       </c>
       <c r="R5">
-        <v>1.000055514190307</v>
+        <v>1.000142672123558</v>
       </c>
       <c r="S5">
-        <v>1.000055514190307</v>
+        <v>1.000142672123558</v>
       </c>
       <c r="T5">
-        <v>1.000019739592387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>1.000050727339096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9996743159300435</v>
+        <v>0.9978933331410141</v>
       </c>
       <c r="D6">
-        <v>1.001302707281004</v>
+        <v>1.008426647162626</v>
       </c>
       <c r="E6">
-        <v>0.9996743159300435</v>
+        <v>0.9978933331410141</v>
       </c>
       <c r="F6">
-        <v>0.9996743159300435</v>
+        <v>1.008426647162626</v>
       </c>
       <c r="G6">
-        <v>0.9991315239201644</v>
+        <v>0.9978933331410141</v>
       </c>
       <c r="H6">
-        <v>1.000716498427485</v>
+        <v>0.9978933331410141</v>
       </c>
       <c r="I6">
-        <v>0.9996743159300435</v>
+        <v>0.9943822196769943</v>
       </c>
       <c r="J6">
-        <v>1.001302707281004</v>
+        <v>1.004634650290072</v>
       </c>
       <c r="K6">
-        <v>0.9996743159300435</v>
+        <v>0.9978933331410141</v>
       </c>
       <c r="L6">
-        <v>0.9996743159300435</v>
+        <v>0.9978933331410141</v>
       </c>
       <c r="M6">
-        <v>1.000488511605524</v>
+        <v>1.00315999015182</v>
       </c>
       <c r="N6">
-        <v>1.000488511605524</v>
+        <v>1.00315999015182</v>
       </c>
       <c r="O6">
-        <v>1.000564507212844</v>
+        <v>1.003651543531237</v>
       </c>
       <c r="P6">
-        <v>1.00021711304703</v>
+        <v>1.001404437814885</v>
       </c>
       <c r="Q6">
-        <v>1.00021711304703</v>
+        <v>1.001404437814885</v>
       </c>
       <c r="R6">
-        <v>1.000081413767784</v>
+        <v>1.000526661646417</v>
       </c>
       <c r="S6">
-        <v>1.000081413767784</v>
+        <v>1.000526661646417</v>
       </c>
       <c r="T6">
-        <v>1.000028946236464</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>1.000187252758789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999965467029464</v>
+        <v>0.9999520755324458</v>
       </c>
       <c r="D7">
-        <v>1.000013811488775</v>
+        <v>1.000191698661664</v>
       </c>
       <c r="E7">
-        <v>0.9999965467029464</v>
+        <v>0.9999520755324458</v>
       </c>
       <c r="F7">
-        <v>0.9999965467029464</v>
+        <v>1.000191698661664</v>
       </c>
       <c r="G7">
-        <v>0.9999907915894506</v>
+        <v>0.9999520755324458</v>
       </c>
       <c r="H7">
-        <v>1.000007596414351</v>
+        <v>0.9999520755324458</v>
       </c>
       <c r="I7">
-        <v>0.9999965467029464</v>
+        <v>0.9998722000333767</v>
       </c>
       <c r="J7">
-        <v>1.000013811488775</v>
+        <v>1.000105434957903</v>
       </c>
       <c r="K7">
-        <v>0.9999965467029464</v>
+        <v>0.9999520755324458</v>
       </c>
       <c r="L7">
-        <v>0.9999965467029464</v>
+        <v>0.9999520755324458</v>
       </c>
       <c r="M7">
-        <v>1.000005179095861</v>
+        <v>1.000071887097055</v>
       </c>
       <c r="N7">
-        <v>1.000005179095861</v>
+        <v>1.000071887097055</v>
       </c>
       <c r="O7">
-        <v>1.000005984868691</v>
+        <v>1.000083069717338</v>
       </c>
       <c r="P7">
-        <v>1.000002301631556</v>
+        <v>1.000031949908852</v>
       </c>
       <c r="Q7">
-        <v>1.000002301631556</v>
+        <v>1.000031949908852</v>
       </c>
       <c r="R7">
-        <v>1.000000862899403</v>
+        <v>1.00001198131475</v>
       </c>
       <c r="S7">
-        <v>1.000000862899403</v>
+        <v>1.00001198131475</v>
       </c>
       <c r="T7">
-        <v>1.000000306600236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>1.000004260041713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999940165779525</v>
+        <v>0.9999947510594367</v>
       </c>
       <c r="D8">
-        <v>1.000023932132427</v>
+        <v>1.000020994046401</v>
       </c>
       <c r="E8">
-        <v>0.9999940165779525</v>
+        <v>0.9999947510594367</v>
       </c>
       <c r="F8">
-        <v>0.9999940165779525</v>
+        <v>1.000020994046401</v>
       </c>
       <c r="G8">
-        <v>0.9999840444253036</v>
+        <v>0.9999947510594367</v>
       </c>
       <c r="H8">
-        <v>1.000013162732351</v>
+        <v>0.9999947510594367</v>
       </c>
       <c r="I8">
-        <v>0.9999940165779525</v>
+        <v>0.9999860027497639</v>
       </c>
       <c r="J8">
-        <v>1.000023932132427</v>
+        <v>1.000011547400902</v>
       </c>
       <c r="K8">
-        <v>0.9999940165779525</v>
+        <v>0.9999947510594367</v>
       </c>
       <c r="L8">
-        <v>0.9999940165779525</v>
+        <v>0.9999947510594367</v>
       </c>
       <c r="M8">
-        <v>1.00000897435519</v>
+        <v>1.000007872552919</v>
       </c>
       <c r="N8">
-        <v>1.00000897435519</v>
+        <v>1.000007872552919</v>
       </c>
       <c r="O8">
-        <v>1.00001037048091</v>
+        <v>1.000009097502247</v>
       </c>
       <c r="P8">
-        <v>1.000003988429444</v>
+        <v>1.000003498721758</v>
       </c>
       <c r="Q8">
-        <v>1.000003988429444</v>
+        <v>1.000003498721758</v>
       </c>
       <c r="R8">
-        <v>1.000001495466571</v>
+        <v>1.000001311806178</v>
       </c>
       <c r="S8">
-        <v>1.000001495466571</v>
+        <v>1.000001311806178</v>
       </c>
       <c r="T8">
-        <v>1.00000053150399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>1.000000466229229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999923323923063</v>
+        <v>0.9998841291518948</v>
       </c>
       <c r="D9">
-        <v>1.000030667399485</v>
+        <v>1.000463478719259</v>
       </c>
       <c r="E9">
-        <v>0.9999923323923063</v>
+        <v>0.9998841291518948</v>
       </c>
       <c r="F9">
-        <v>0.9999923323923063</v>
+        <v>1.000463478719259</v>
       </c>
       <c r="G9">
-        <v>0.9999795545242113</v>
+        <v>0.9998841291518948</v>
       </c>
       <c r="H9">
-        <v>1.000016866830196</v>
+        <v>0.9998841291518948</v>
       </c>
       <c r="I9">
-        <v>0.9999923323923063</v>
+        <v>0.999691011295459</v>
       </c>
       <c r="J9">
-        <v>1.000030667399485</v>
+        <v>1.00025491493787</v>
       </c>
       <c r="K9">
-        <v>0.9999923323923063</v>
+        <v>0.9998841291518948</v>
       </c>
       <c r="L9">
-        <v>0.9999923323923063</v>
+        <v>0.9998841291518948</v>
       </c>
       <c r="M9">
-        <v>1.000011499895896</v>
+        <v>1.000173803935577</v>
       </c>
       <c r="N9">
-        <v>1.000011499895896</v>
+        <v>1.000173803935577</v>
       </c>
       <c r="O9">
-        <v>1.000013288873996</v>
+        <v>1.000200840936341</v>
       </c>
       <c r="P9">
-        <v>1.000005110728033</v>
+        <v>1.00007724567435</v>
       </c>
       <c r="Q9">
-        <v>1.000005110728033</v>
+        <v>1.00007724567435</v>
       </c>
       <c r="R9">
-        <v>1.000001916144101</v>
+        <v>1.000028966543736</v>
       </c>
       <c r="S9">
-        <v>1.000001916144101</v>
+        <v>1.000028966543736</v>
       </c>
       <c r="T9">
-        <v>1.000000680988469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>1.000010298734712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999826150351651</v>
+        <v>0.9978618726837805</v>
       </c>
       <c r="D10">
-        <v>1.000069536772217</v>
+        <v>1.008552488642203</v>
       </c>
       <c r="E10">
-        <v>0.9999826150351651</v>
+        <v>0.9978618726837805</v>
       </c>
       <c r="F10">
-        <v>0.9999826150351651</v>
+        <v>1.008552488642203</v>
       </c>
       <c r="G10">
-        <v>0.9999536415098367</v>
+        <v>0.9978618726837805</v>
       </c>
       <c r="H10">
-        <v>1.000038245015128</v>
+        <v>0.9978618726837805</v>
       </c>
       <c r="I10">
-        <v>0.9999826150351651</v>
+        <v>0.99429832552298</v>
       </c>
       <c r="J10">
-        <v>1.000069536772217</v>
+        <v>1.004703862614569</v>
       </c>
       <c r="K10">
-        <v>0.9999826150351651</v>
+        <v>0.9978618726837805</v>
       </c>
       <c r="L10">
-        <v>0.9999826150351651</v>
+        <v>0.9978618726837805</v>
       </c>
       <c r="M10">
-        <v>1.000026075903691</v>
+        <v>1.003207180662991</v>
       </c>
       <c r="N10">
-        <v>1.000026075903691</v>
+        <v>1.003207180662991</v>
       </c>
       <c r="O10">
-        <v>1.00003013227417</v>
+        <v>1.00370607464685</v>
       </c>
       <c r="P10">
-        <v>1.000011588947516</v>
+        <v>1.001425411336588</v>
       </c>
       <c r="Q10">
-        <v>1.000011588947516</v>
+        <v>1.001425411336588</v>
       </c>
       <c r="R10">
-        <v>1.000004345469428</v>
+        <v>1.000534526673386</v>
       </c>
       <c r="S10">
-        <v>1.000004345469428</v>
+        <v>1.000534526673386</v>
       </c>
       <c r="T10">
-        <v>1.00000154473378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>1.000190049138515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999745078826879</v>
+        <v>1.001081528903198</v>
       </c>
       <c r="D11">
-        <v>1.000101966219385</v>
+        <v>0.9956738869610433</v>
       </c>
       <c r="E11">
-        <v>0.9999745078826879</v>
+        <v>1.001081528903198</v>
       </c>
       <c r="F11">
-        <v>0.9999745078826879</v>
+        <v>0.9956738869610433</v>
       </c>
       <c r="G11">
-        <v>0.9999320225074123</v>
+        <v>1.001081528903198</v>
       </c>
       <c r="H11">
-        <v>1.000056082172981</v>
+        <v>1.001081528903198</v>
       </c>
       <c r="I11">
-        <v>0.9999745078826879</v>
+        <v>1.00288407410547</v>
       </c>
       <c r="J11">
-        <v>1.000101966219385</v>
+        <v>0.9976206380327114</v>
       </c>
       <c r="K11">
-        <v>0.9999745078826879</v>
+        <v>1.001081528903198</v>
       </c>
       <c r="L11">
-        <v>0.9999745078826879</v>
+        <v>1.001081528903198</v>
       </c>
       <c r="M11">
-        <v>1.000038237051036</v>
+        <v>0.9983777079321206</v>
       </c>
       <c r="N11">
-        <v>1.000038237051036</v>
+        <v>0.9983777079321206</v>
       </c>
       <c r="O11">
-        <v>1.000044185425018</v>
+        <v>0.9981253512989842</v>
       </c>
       <c r="P11">
-        <v>1.00001699399492</v>
+        <v>0.9992789815891463</v>
       </c>
       <c r="Q11">
-        <v>1.00001699399492</v>
+        <v>0.9992789815891463</v>
       </c>
       <c r="R11">
-        <v>1.000006372466862</v>
+        <v>0.9997296184176592</v>
       </c>
       <c r="S11">
-        <v>1.000006372466862</v>
+        <v>0.9997296184176592</v>
       </c>
       <c r="T11">
-        <v>1.000002265757974</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.9999038643014696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9997612421396281</v>
+        <v>0.9994044492736848</v>
       </c>
       <c r="D12">
-        <v>1.000955018273049</v>
+        <v>1.002382199442107</v>
       </c>
       <c r="E12">
-        <v>0.9997612421396281</v>
+        <v>0.9994044492736848</v>
       </c>
       <c r="F12">
-        <v>0.9997612421396281</v>
+        <v>1.002382199442107</v>
       </c>
       <c r="G12">
-        <v>0.999363323984907</v>
+        <v>0.9994044492736848</v>
       </c>
       <c r="H12">
-        <v>1.000525256324738</v>
+        <v>0.9994044492736848</v>
       </c>
       <c r="I12">
-        <v>0.9997612421396281</v>
+        <v>0.9984118647789455</v>
       </c>
       <c r="J12">
-        <v>1.000955018273049</v>
+        <v>1.001310207400001</v>
       </c>
       <c r="K12">
-        <v>0.9997612421396281</v>
+        <v>0.9994044492736848</v>
       </c>
       <c r="L12">
-        <v>0.9997612421396281</v>
+        <v>0.9994044492736848</v>
       </c>
       <c r="M12">
-        <v>1.000358130206339</v>
+        <v>1.000893324357896</v>
       </c>
       <c r="N12">
-        <v>1.000358130206339</v>
+        <v>1.000893324357896</v>
       </c>
       <c r="O12">
-        <v>1.000413838912472</v>
+        <v>1.001032285371931</v>
       </c>
       <c r="P12">
-        <v>1.000159167517435</v>
+        <v>1.000397032663159</v>
       </c>
       <c r="Q12">
-        <v>1.000159167517435</v>
+        <v>1.000397032663159</v>
       </c>
       <c r="R12">
-        <v>1.000059686172983</v>
+        <v>1.00014888681579</v>
       </c>
       <c r="S12">
-        <v>1.000059686172983</v>
+        <v>1.00014888681579</v>
       </c>
       <c r="T12">
-        <v>1.000021220833596</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>1.000052936573685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9999366958598264</v>
+        <v>1.000420513399842</v>
       </c>
       <c r="D13">
-        <v>1.000253224397818</v>
+        <v>0.9983179463199264</v>
       </c>
       <c r="E13">
-        <v>0.9999366958598264</v>
+        <v>1.000420513399842</v>
       </c>
       <c r="F13">
-        <v>0.9999366958598264</v>
+        <v>0.9983179463199264</v>
       </c>
       <c r="G13">
-        <v>0.999831184209429</v>
+        <v>1.000420513399842</v>
       </c>
       <c r="H13">
-        <v>1.000139273847505</v>
+        <v>1.000420513399842</v>
       </c>
       <c r="I13">
-        <v>0.9999366958598264</v>
+        <v>1.001121369114895</v>
       </c>
       <c r="J13">
-        <v>1.000253224397818</v>
+        <v>0.9990748696941155</v>
       </c>
       <c r="K13">
-        <v>0.9999366958598264</v>
+        <v>1.000420513399842</v>
       </c>
       <c r="L13">
-        <v>0.9999366958598264</v>
+        <v>1.000420513399842</v>
       </c>
       <c r="M13">
-        <v>1.000094960128822</v>
+        <v>0.9993692298598844</v>
       </c>
       <c r="N13">
-        <v>1.000094960128822</v>
+        <v>0.9993692298598844</v>
       </c>
       <c r="O13">
-        <v>1.000109731368383</v>
+        <v>0.9992711098046282</v>
       </c>
       <c r="P13">
-        <v>1.00004220537249</v>
+        <v>0.999719657706537</v>
       </c>
       <c r="Q13">
-        <v>1.00004220537249</v>
+        <v>0.999719657706537</v>
       </c>
       <c r="R13">
-        <v>1.000015827994325</v>
+        <v>0.9998948716298633</v>
       </c>
       <c r="S13">
-        <v>1.000015827994325</v>
+        <v>0.9998948716298633</v>
       </c>
       <c r="T13">
-        <v>1.000005628339039</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>0.9999626208880773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9985150025448931</v>
+        <v>0.9963059399999995</v>
       </c>
       <c r="D14">
-        <v>1.005940009352896</v>
+        <v>1.0147762</v>
       </c>
       <c r="E14">
-        <v>0.9985150025448931</v>
+        <v>0.9963059399999995</v>
       </c>
       <c r="F14">
-        <v>0.9985150025448931</v>
+        <v>1.0147762</v>
       </c>
       <c r="G14">
-        <v>0.9960400001423928</v>
+        <v>0.9963059399999995</v>
       </c>
       <c r="H14">
-        <v>1.003267005316075</v>
+        <v>0.9963059399999995</v>
       </c>
       <c r="I14">
-        <v>0.9985150025448931</v>
+        <v>0.9901491700000002</v>
       </c>
       <c r="J14">
-        <v>1.005940009352896</v>
+        <v>1.0081269</v>
       </c>
       <c r="K14">
-        <v>0.9985150025448931</v>
+        <v>0.9963059399999995</v>
       </c>
       <c r="L14">
-        <v>0.9985150025448931</v>
+        <v>0.9963059399999995</v>
       </c>
       <c r="M14">
-        <v>1.002227505948895</v>
+        <v>1.00554107</v>
       </c>
       <c r="N14">
-        <v>1.002227505948895</v>
+        <v>1.00554107</v>
       </c>
       <c r="O14">
-        <v>1.002574005737955</v>
+        <v>1.006403013333333</v>
       </c>
       <c r="P14">
-        <v>1.000990004814228</v>
+        <v>1.002462693333333</v>
       </c>
       <c r="Q14">
-        <v>1.000990004814228</v>
+        <v>1.002462693333333</v>
       </c>
       <c r="R14">
-        <v>1.000371254246894</v>
+        <v>1.000923505</v>
       </c>
       <c r="S14">
-        <v>1.000371254246894</v>
+        <v>1.000923505</v>
       </c>
       <c r="T14">
-        <v>1.000132003741007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>1.000328348333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9995934440292141</v>
+        <v>1.0042979</v>
       </c>
       <c r="D15">
-        <v>1.001626225666812</v>
+        <v>0.98280841</v>
       </c>
       <c r="E15">
-        <v>0.9995934440292141</v>
+        <v>1.0042979</v>
       </c>
       <c r="F15">
-        <v>0.9995934440292141</v>
+        <v>0.98280841</v>
       </c>
       <c r="G15">
-        <v>0.9989158532468723</v>
+        <v>1.0042979</v>
       </c>
       <c r="H15">
-        <v>1.000894412558137</v>
+        <v>1.0042979</v>
       </c>
       <c r="I15">
-        <v>0.9995934440292141</v>
+        <v>1.0114611</v>
       </c>
       <c r="J15">
-        <v>1.001626225666812</v>
+        <v>0.99054463</v>
       </c>
       <c r="K15">
-        <v>0.9995934440292141</v>
+        <v>1.0042979</v>
       </c>
       <c r="L15">
-        <v>0.9995934440292141</v>
+        <v>1.0042979</v>
       </c>
       <c r="M15">
-        <v>1.000609834848013</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N15">
-        <v>1.000609834848013</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O15">
-        <v>1.000704694084721</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P15">
-        <v>1.000271037908413</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q15">
-        <v>1.000271037908413</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R15">
-        <v>1.000101639438614</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S15">
-        <v>1.000101639438614</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T15">
-        <v>1.00003613725991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0.9996179733333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999997520634458</v>
+        <v>1.0099811</v>
       </c>
       <c r="D16">
-        <v>1.000000989952287</v>
+        <v>0.9600757300000001</v>
       </c>
       <c r="E16">
-        <v>0.9999997520634458</v>
+        <v>1.0099811</v>
       </c>
       <c r="F16">
-        <v>0.9999997520634458</v>
+        <v>0.9600757300000001</v>
       </c>
       <c r="G16">
-        <v>0.9999993392320786</v>
+        <v>1.0099811</v>
       </c>
       <c r="H16">
-        <v>1.000000544720528</v>
+        <v>1.0099811</v>
       </c>
       <c r="I16">
-        <v>0.9999997520634458</v>
+        <v>1.0266162</v>
       </c>
       <c r="J16">
-        <v>1.000000989952287</v>
+        <v>0.97804165</v>
       </c>
       <c r="K16">
-        <v>0.9999997520634458</v>
+        <v>1.0099811</v>
       </c>
       <c r="L16">
-        <v>0.9999997520634458</v>
+        <v>1.0099811</v>
       </c>
       <c r="M16">
-        <v>1.000000371007867</v>
+        <v>0.9850284150000002</v>
       </c>
       <c r="N16">
-        <v>1.000000371007867</v>
+        <v>0.9850284150000002</v>
       </c>
       <c r="O16">
-        <v>1.000000428912087</v>
+        <v>0.9826994933333335</v>
       </c>
       <c r="P16">
-        <v>1.00000016469306</v>
+        <v>0.9933459766666668</v>
       </c>
       <c r="Q16">
-        <v>1.00000016469306</v>
+        <v>0.9933459766666668</v>
       </c>
       <c r="R16">
-        <v>1.000000061535656</v>
+        <v>0.9975047575000001</v>
       </c>
       <c r="S16">
-        <v>1.000000061535656</v>
+        <v>0.9975047575000001</v>
       </c>
       <c r="T16">
-        <v>1.000000021682539</v>
+        <v>0.9991128133333335</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999947510594365</v>
+        <v>1.0042646</v>
       </c>
       <c r="D17">
-        <v>1.000020994046401</v>
+        <v>0.98294161</v>
       </c>
       <c r="E17">
-        <v>0.9999947510594365</v>
+        <v>1.0042646</v>
       </c>
       <c r="F17">
-        <v>0.9999947510594365</v>
+        <v>0.98294161</v>
       </c>
       <c r="G17">
-        <v>0.9999860027497639</v>
+        <v>1.0042646</v>
       </c>
       <c r="H17">
-        <v>1.000011547400902</v>
+        <v>1.0042646</v>
       </c>
       <c r="I17">
-        <v>0.9999947510594365</v>
+        <v>1.0113723</v>
       </c>
       <c r="J17">
-        <v>1.000020994046401</v>
+        <v>0.99061788</v>
       </c>
       <c r="K17">
-        <v>0.9999947510594365</v>
+        <v>1.0042646</v>
       </c>
       <c r="L17">
-        <v>0.9999947510594365</v>
+        <v>1.0042646</v>
       </c>
       <c r="M17">
-        <v>1.000007872552918</v>
+        <v>0.993603105</v>
       </c>
       <c r="N17">
-        <v>1.000007872552918</v>
+        <v>0.993603105</v>
       </c>
       <c r="O17">
-        <v>1.000009097502246</v>
+        <v>0.99260803</v>
       </c>
       <c r="P17">
-        <v>1.000003498721758</v>
+        <v>0.9971569366666667</v>
       </c>
       <c r="Q17">
-        <v>1.000003498721758</v>
+        <v>0.9971569366666667</v>
       </c>
       <c r="R17">
-        <v>1.000001311806177</v>
+        <v>0.9989338525</v>
       </c>
       <c r="S17">
-        <v>1.000001311806177</v>
+        <v>0.9989338525</v>
       </c>
       <c r="T17">
-        <v>1.000000466229229</v>
+        <v>0.9996209316666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999815202614994</v>
+        <v>0.9986925832876716</v>
       </c>
       <c r="D18">
-        <v>1.000073918526963</v>
+        <v>1.005229682328767</v>
       </c>
       <c r="E18">
-        <v>0.9999815202614994</v>
+        <v>0.9986925832876716</v>
       </c>
       <c r="F18">
-        <v>0.9999815202614994</v>
+        <v>1.005229682328767</v>
       </c>
       <c r="G18">
-        <v>0.9999507242358527</v>
+        <v>0.9986925832876716</v>
       </c>
       <c r="H18">
-        <v>1.000040655595972</v>
+        <v>0.9986925832876716</v>
       </c>
       <c r="I18">
-        <v>0.9999815202614994</v>
+        <v>0.996513543835616</v>
       </c>
       <c r="J18">
-        <v>1.000073918526963</v>
+        <v>1.002876332465753</v>
       </c>
       <c r="K18">
-        <v>0.9999815202614994</v>
+        <v>0.9986925832876716</v>
       </c>
       <c r="L18">
-        <v>0.9999815202614994</v>
+        <v>0.9986925832876716</v>
       </c>
       <c r="M18">
-        <v>1.000027719394231</v>
+        <v>1.00196113280822</v>
       </c>
       <c r="N18">
-        <v>1.000027719394231</v>
+        <v>1.00196113280822</v>
       </c>
       <c r="O18">
-        <v>1.000032031461478</v>
+        <v>1.002266199360731</v>
       </c>
       <c r="P18">
-        <v>1.000012319683321</v>
+        <v>1.00087161630137</v>
       </c>
       <c r="Q18">
-        <v>1.000012319683321</v>
+        <v>1.00087161630137</v>
       </c>
       <c r="R18">
-        <v>1.000004619827865</v>
+        <v>1.000326858047946</v>
       </c>
       <c r="S18">
-        <v>1.000004619827865</v>
+        <v>1.000326858047946</v>
       </c>
       <c r="T18">
-        <v>1.000001643190548</v>
+        <v>1.000116218082192</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9999567076034642</v>
+        <v>1.001692329473684</v>
       </c>
       <c r="D19">
-        <v>1.000173168260753</v>
+        <v>0.9932306668421054</v>
       </c>
       <c r="E19">
-        <v>0.9999567076034642</v>
+        <v>1.001692329473684</v>
       </c>
       <c r="F19">
-        <v>0.9999567076034642</v>
+        <v>0.9932306668421054</v>
       </c>
       <c r="G19">
-        <v>0.9998845531227497</v>
+        <v>1.001692329473684</v>
       </c>
       <c r="H19">
-        <v>1.000095246240853</v>
+        <v>1.001692329473684</v>
       </c>
       <c r="I19">
-        <v>0.9999567076034642</v>
+        <v>1.004512892631579</v>
       </c>
       <c r="J19">
-        <v>1.000173168260753</v>
+        <v>0.9962768642105263</v>
       </c>
       <c r="K19">
-        <v>0.9999567076034642</v>
+        <v>1.001692329473684</v>
       </c>
       <c r="L19">
-        <v>0.9999567076034642</v>
+        <v>1.001692329473684</v>
       </c>
       <c r="M19">
-        <v>1.000064937932108</v>
+        <v>0.9974614981578948</v>
       </c>
       <c r="N19">
-        <v>1.000064937932108</v>
+        <v>0.9974614981578948</v>
       </c>
       <c r="O19">
-        <v>1.00007504070169</v>
+        <v>0.9970666201754387</v>
       </c>
       <c r="P19">
-        <v>1.000028861155894</v>
+        <v>0.998871775263158</v>
       </c>
       <c r="Q19">
-        <v>1.000028861155894</v>
+        <v>0.998871775263158</v>
       </c>
       <c r="R19">
-        <v>1.000010822767786</v>
+        <v>0.9995769138157895</v>
       </c>
       <c r="S19">
-        <v>1.000010822767786</v>
+        <v>0.9995769138157895</v>
       </c>
       <c r="T19">
-        <v>1.000003848405791</v>
+        <v>0.9998495686842105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.003561802631579</v>
+      </c>
+      <c r="D20">
+        <v>0.985752805263158</v>
+      </c>
+      <c r="E20">
+        <v>1.003561802631579</v>
+      </c>
+      <c r="F20">
+        <v>0.985752805263158</v>
+      </c>
+      <c r="G20">
+        <v>1.003561802631579</v>
+      </c>
+      <c r="H20">
+        <v>1.003561802631579</v>
+      </c>
+      <c r="I20">
+        <v>1.009498128947369</v>
+      </c>
+      <c r="J20">
+        <v>0.9921640489473685</v>
+      </c>
+      <c r="K20">
+        <v>1.003561802631579</v>
+      </c>
+      <c r="L20">
+        <v>1.003561802631579</v>
+      </c>
+      <c r="M20">
+        <v>0.9946573039473685</v>
+      </c>
+      <c r="N20">
+        <v>0.9946573039473685</v>
+      </c>
+      <c r="O20">
+        <v>0.9938262189473686</v>
+      </c>
+      <c r="P20">
+        <v>0.9976254701754387</v>
+      </c>
+      <c r="Q20">
+        <v>0.9976254701754387</v>
+      </c>
+      <c r="R20">
+        <v>0.9991095532894737</v>
+      </c>
+      <c r="S20">
+        <v>0.9991095532894737</v>
+      </c>
+      <c r="T20">
+        <v>0.9996833985087719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9985150025448931</v>
+      </c>
+      <c r="D21">
+        <v>1.005940009352896</v>
+      </c>
+      <c r="E21">
+        <v>0.9985150025448931</v>
+      </c>
+      <c r="F21">
+        <v>1.005940009352896</v>
+      </c>
+      <c r="G21">
+        <v>0.9985150025448931</v>
+      </c>
+      <c r="H21">
+        <v>0.9985150025448931</v>
+      </c>
+      <c r="I21">
+        <v>0.9960400001423928</v>
+      </c>
+      <c r="J21">
+        <v>1.003267005316075</v>
+      </c>
+      <c r="K21">
+        <v>0.9985150025448931</v>
+      </c>
+      <c r="L21">
+        <v>0.9985150025448931</v>
+      </c>
+      <c r="M21">
+        <v>1.002227505948895</v>
+      </c>
+      <c r="N21">
+        <v>1.002227505948895</v>
+      </c>
+      <c r="O21">
+        <v>1.002574005737954</v>
+      </c>
+      <c r="P21">
+        <v>1.000990004814227</v>
+      </c>
+      <c r="Q21">
+        <v>1.000990004814227</v>
+      </c>
+      <c r="R21">
+        <v>1.000371254246894</v>
+      </c>
+      <c r="S21">
+        <v>1.000371254246894</v>
+      </c>
+      <c r="T21">
+        <v>1.000132003741007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9995934440292141</v>
+      </c>
+      <c r="D22">
+        <v>1.001626225666812</v>
+      </c>
+      <c r="E22">
+        <v>0.9995934440292141</v>
+      </c>
+      <c r="F22">
+        <v>1.001626225666812</v>
+      </c>
+      <c r="G22">
+        <v>0.9995934440292141</v>
+      </c>
+      <c r="H22">
+        <v>0.9995934440292141</v>
+      </c>
+      <c r="I22">
+        <v>0.9989158532468723</v>
+      </c>
+      <c r="J22">
+        <v>1.000894412558137</v>
+      </c>
+      <c r="K22">
+        <v>0.9995934440292141</v>
+      </c>
+      <c r="L22">
+        <v>0.9995934440292141</v>
+      </c>
+      <c r="M22">
+        <v>1.000609834848013</v>
+      </c>
+      <c r="N22">
+        <v>1.000609834848013</v>
+      </c>
+      <c r="O22">
+        <v>1.000704694084721</v>
+      </c>
+      <c r="P22">
+        <v>1.000271037908413</v>
+      </c>
+      <c r="Q22">
+        <v>1.000271037908413</v>
+      </c>
+      <c r="R22">
+        <v>1.000101639438614</v>
+      </c>
+      <c r="S22">
+        <v>1.000101639438614</v>
+      </c>
+      <c r="T22">
+        <v>1.00003613725991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9997612421396281</v>
+      </c>
+      <c r="D23">
+        <v>1.000955018273049</v>
+      </c>
+      <c r="E23">
+        <v>0.9997612421396281</v>
+      </c>
+      <c r="F23">
+        <v>1.000955018273049</v>
+      </c>
+      <c r="G23">
+        <v>0.9997612421396281</v>
+      </c>
+      <c r="H23">
+        <v>0.9997612421396281</v>
+      </c>
+      <c r="I23">
+        <v>0.999363323984907</v>
+      </c>
+      <c r="J23">
+        <v>1.000525256324738</v>
+      </c>
+      <c r="K23">
+        <v>0.9997612421396281</v>
+      </c>
+      <c r="L23">
+        <v>0.9997612421396281</v>
+      </c>
+      <c r="M23">
+        <v>1.000358130206339</v>
+      </c>
+      <c r="N23">
+        <v>1.000358130206339</v>
+      </c>
+      <c r="O23">
+        <v>1.000413838912472</v>
+      </c>
+      <c r="P23">
+        <v>1.000159167517435</v>
+      </c>
+      <c r="Q23">
+        <v>1.000159167517435</v>
+      </c>
+      <c r="R23">
+        <v>1.000059686172983</v>
+      </c>
+      <c r="S23">
+        <v>1.000059686172983</v>
+      </c>
+      <c r="T23">
+        <v>1.000021220833596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9999366958598266</v>
+      </c>
+      <c r="D24">
+        <v>1.000253224397818</v>
+      </c>
+      <c r="E24">
+        <v>0.9999366958598266</v>
+      </c>
+      <c r="F24">
+        <v>1.000253224397818</v>
+      </c>
+      <c r="G24">
+        <v>0.9999366958598266</v>
+      </c>
+      <c r="H24">
+        <v>0.9999366958598266</v>
+      </c>
+      <c r="I24">
+        <v>0.9998311842094293</v>
+      </c>
+      <c r="J24">
+        <v>1.000139273847505</v>
+      </c>
+      <c r="K24">
+        <v>0.9999366958598266</v>
+      </c>
+      <c r="L24">
+        <v>0.9999366958598266</v>
+      </c>
+      <c r="M24">
+        <v>1.000094960128822</v>
+      </c>
+      <c r="N24">
+        <v>1.000094960128822</v>
+      </c>
+      <c r="O24">
+        <v>1.000109731368383</v>
+      </c>
+      <c r="P24">
+        <v>1.00004220537249</v>
+      </c>
+      <c r="Q24">
+        <v>1.00004220537249</v>
+      </c>
+      <c r="R24">
+        <v>1.000015827994325</v>
+      </c>
+      <c r="S24">
+        <v>1.000015827994325</v>
+      </c>
+      <c r="T24">
+        <v>1.000005628339039</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.003898907217614</v>
+      </c>
+      <c r="D25">
+        <v>0.9844044039510289</v>
+      </c>
+      <c r="E25">
+        <v>1.003898907217614</v>
+      </c>
+      <c r="F25">
+        <v>0.9844044039510289</v>
+      </c>
+      <c r="G25">
+        <v>1.003898907217614</v>
+      </c>
+      <c r="H25">
+        <v>1.003898907217614</v>
+      </c>
+      <c r="I25">
+        <v>1.01039706505871</v>
+      </c>
+      <c r="J25">
+        <v>0.9914224221160978</v>
+      </c>
+      <c r="K25">
+        <v>1.003898907217614</v>
+      </c>
+      <c r="L25">
+        <v>1.003898907217614</v>
+      </c>
+      <c r="M25">
+        <v>0.9941516555843214</v>
+      </c>
+      <c r="N25">
+        <v>0.9941516555843214</v>
+      </c>
+      <c r="O25">
+        <v>0.9932419110949136</v>
+      </c>
+      <c r="P25">
+        <v>0.9974007394620855</v>
+      </c>
+      <c r="Q25">
+        <v>0.9974007394620855</v>
+      </c>
+      <c r="R25">
+        <v>0.9990252814009676</v>
+      </c>
+      <c r="S25">
+        <v>0.9990252814009676</v>
+      </c>
+      <c r="T25">
+        <v>0.999653435463113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.001033115463759</v>
+      </c>
+      <c r="D26">
+        <v>0.9958675212528204</v>
+      </c>
+      <c r="E26">
+        <v>1.001033115463759</v>
+      </c>
+      <c r="F26">
+        <v>0.9958675212528204</v>
+      </c>
+      <c r="G26">
+        <v>1.001033115463759</v>
+      </c>
+      <c r="H26">
+        <v>1.001033115463759</v>
+      </c>
+      <c r="I26">
+        <v>1.002754984078896</v>
+      </c>
+      <c r="J26">
+        <v>0.9977271288890958</v>
+      </c>
+      <c r="K26">
+        <v>1.001033115463759</v>
+      </c>
+      <c r="L26">
+        <v>1.001033115463759</v>
+      </c>
+      <c r="M26">
+        <v>0.9984503183582898</v>
+      </c>
+      <c r="N26">
+        <v>0.9984503183582898</v>
+      </c>
+      <c r="O26">
+        <v>0.9982092552018917</v>
+      </c>
+      <c r="P26">
+        <v>0.9993112507267797</v>
+      </c>
+      <c r="Q26">
+        <v>0.9993112507267797</v>
+      </c>
+      <c r="R26">
+        <v>0.9997417169110245</v>
+      </c>
+      <c r="S26">
+        <v>0.9997417169110245</v>
+      </c>
+      <c r="T26">
+        <v>0.9999081634353484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9997798351072928</v>
+      </c>
+      <c r="D27">
+        <v>1.000880661715044</v>
+      </c>
+      <c r="E27">
+        <v>0.9997798351072928</v>
+      </c>
+      <c r="F27">
+        <v>1.000880661715044</v>
+      </c>
+      <c r="G27">
+        <v>0.9997798351072928</v>
+      </c>
+      <c r="H27">
+        <v>0.9997798351072928</v>
+      </c>
+      <c r="I27">
+        <v>0.999412893520267</v>
+      </c>
+      <c r="J27">
+        <v>1.000484354511546</v>
+      </c>
+      <c r="K27">
+        <v>0.9997798351072928</v>
+      </c>
+      <c r="L27">
+        <v>0.9997798351072928</v>
+      </c>
+      <c r="M27">
+        <v>1.000330248411168</v>
+      </c>
+      <c r="N27">
+        <v>1.000330248411168</v>
+      </c>
+      <c r="O27">
+        <v>1.000381617111294</v>
+      </c>
+      <c r="P27">
+        <v>1.000146777309877</v>
+      </c>
+      <c r="Q27">
+        <v>1.000146777309877</v>
+      </c>
+      <c r="R27">
+        <v>1.000055041759231</v>
+      </c>
+      <c r="S27">
+        <v>1.000055041759231</v>
+      </c>
+      <c r="T27">
+        <v>1.000019569178123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000648467066598</v>
+      </c>
+      <c r="D28">
+        <v>0.9974061470006251</v>
+      </c>
+      <c r="E28">
+        <v>1.000648467066598</v>
+      </c>
+      <c r="F28">
+        <v>0.9974061470006251</v>
+      </c>
+      <c r="G28">
+        <v>1.000648467066598</v>
+      </c>
+      <c r="H28">
+        <v>1.000648467066598</v>
+      </c>
+      <c r="I28">
+        <v>1.001729242030945</v>
+      </c>
+      <c r="J28">
+        <v>0.9985733825997828</v>
+      </c>
+      <c r="K28">
+        <v>1.000648467066598</v>
+      </c>
+      <c r="L28">
+        <v>1.000648467066598</v>
+      </c>
+      <c r="M28">
+        <v>0.9990273070336115</v>
+      </c>
+      <c r="N28">
+        <v>0.9990273070336115</v>
+      </c>
+      <c r="O28">
+        <v>0.998875998889002</v>
+      </c>
+      <c r="P28">
+        <v>0.9995676937112736</v>
+      </c>
+      <c r="Q28">
+        <v>0.9995676937112736</v>
+      </c>
+      <c r="R28">
+        <v>0.9998378870501047</v>
+      </c>
+      <c r="S28">
+        <v>0.9998378870501047</v>
+      </c>
+      <c r="T28">
+        <v>0.9999423621385245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.001288833060863</v>
+      </c>
+      <c r="D29">
+        <v>0.9948446695750164</v>
+      </c>
+      <c r="E29">
+        <v>1.001288833060863</v>
+      </c>
+      <c r="F29">
+        <v>0.9948446695750164</v>
+      </c>
+      <c r="G29">
+        <v>1.001288833060863</v>
+      </c>
+      <c r="H29">
+        <v>1.001288833060863</v>
+      </c>
+      <c r="I29">
+        <v>1.003436895286492</v>
+      </c>
+      <c r="J29">
+        <v>0.9971645758686778</v>
+      </c>
+      <c r="K29">
+        <v>1.001288833060863</v>
+      </c>
+      <c r="L29">
+        <v>1.001288833060863</v>
+      </c>
+      <c r="M29">
+        <v>0.9980667513179395</v>
+      </c>
+      <c r="N29">
+        <v>0.9980667513179395</v>
+      </c>
+      <c r="O29">
+        <v>0.9977660261681857</v>
+      </c>
+      <c r="P29">
+        <v>0.9991407785655806</v>
+      </c>
+      <c r="Q29">
+        <v>0.9991407785655806</v>
+      </c>
+      <c r="R29">
+        <v>0.9996777921894011</v>
+      </c>
+      <c r="S29">
+        <v>0.9996777921894011</v>
+      </c>
+      <c r="T29">
+        <v>0.9998854399854623</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.001357298501013</v>
+        <v>0.9994519954698533</v>
       </c>
       <c r="D4">
-        <v>0.9945708030909957</v>
+        <v>1.002192016202509</v>
       </c>
       <c r="E4">
-        <v>1.001357298501013</v>
+        <v>0.9994519954698533</v>
       </c>
       <c r="F4">
-        <v>0.9945708030909957</v>
+        <v>1.002192016202509</v>
       </c>
       <c r="G4">
-        <v>1.001357298501013</v>
+        <v>0.9994519954698533</v>
       </c>
       <c r="H4">
-        <v>1.001357298501013</v>
+        <v>0.9994519954698533</v>
       </c>
       <c r="I4">
-        <v>1.003619464910636</v>
+        <v>0.9985386548779498</v>
       </c>
       <c r="J4">
-        <v>0.9970139419953008</v>
+        <v>1.001205608123245</v>
       </c>
       <c r="K4">
-        <v>1.001357298501013</v>
+        <v>0.9994519954698533</v>
       </c>
       <c r="L4">
-        <v>1.001357298501013</v>
+        <v>0.9994519954698533</v>
       </c>
       <c r="M4">
-        <v>0.9979640507960045</v>
+        <v>1.000822005836181</v>
       </c>
       <c r="N4">
-        <v>0.9979640507960045</v>
+        <v>1.000822005836181</v>
       </c>
       <c r="O4">
-        <v>0.9976473478624367</v>
+        <v>1.000949873265202</v>
       </c>
       <c r="P4">
-        <v>0.9990951333643409</v>
+        <v>1.000365335714072</v>
       </c>
       <c r="Q4">
-        <v>0.9990951333643409</v>
+        <v>1.000365335714072</v>
       </c>
       <c r="R4">
-        <v>0.9996606746485089</v>
+        <v>1.000137000653017</v>
       </c>
       <c r="S4">
-        <v>0.9996606746485089</v>
+        <v>1.000137000653017</v>
       </c>
       <c r="T4">
-        <v>0.9998793509166622</v>
+        <v>1.000048710935544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9994293096613812</v>
+        <v>1.004123482477644</v>
       </c>
       <c r="D5">
-        <v>1.002282759510087</v>
+        <v>0.9835060910044668</v>
       </c>
       <c r="E5">
-        <v>0.9994293096613812</v>
+        <v>1.004123482477644</v>
       </c>
       <c r="F5">
-        <v>1.002282759510087</v>
+        <v>0.9835060910044668</v>
       </c>
       <c r="G5">
-        <v>0.9994293096613812</v>
+        <v>1.004123482477644</v>
       </c>
       <c r="H5">
-        <v>0.9994293096613812</v>
+        <v>1.004123482477644</v>
       </c>
       <c r="I5">
-        <v>0.9984781585590764</v>
+        <v>1.010995939705333</v>
       </c>
       <c r="J5">
-        <v>1.001255516981271</v>
+        <v>0.9909283574945952</v>
       </c>
       <c r="K5">
-        <v>0.9994293096613812</v>
+        <v>1.004123482477644</v>
       </c>
       <c r="L5">
-        <v>0.9994293096613812</v>
+        <v>1.004123482477644</v>
       </c>
       <c r="M5">
-        <v>1.000856034585734</v>
+        <v>0.9938147867410553</v>
       </c>
       <c r="N5">
-        <v>1.000856034585734</v>
+        <v>0.9938147867410553</v>
       </c>
       <c r="O5">
-        <v>1.000989195384246</v>
+        <v>0.9928526436589019</v>
       </c>
       <c r="P5">
-        <v>1.00038045961095</v>
+        <v>0.9972510186532514</v>
       </c>
       <c r="Q5">
-        <v>1.00038045961095</v>
+        <v>0.9972510186532514</v>
       </c>
       <c r="R5">
-        <v>1.000142672123558</v>
+        <v>0.9989691346093494</v>
       </c>
       <c r="S5">
-        <v>1.000142672123558</v>
+        <v>0.9989691346093494</v>
       </c>
       <c r="T5">
-        <v>1.000050727339096</v>
+        <v>0.999633472606221</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9978933331410141</v>
+        <v>1.001357298501013</v>
       </c>
       <c r="D6">
-        <v>1.008426647162626</v>
+        <v>0.9945708030909957</v>
       </c>
       <c r="E6">
-        <v>0.9978933331410141</v>
+        <v>1.001357298501013</v>
       </c>
       <c r="F6">
-        <v>1.008426647162626</v>
+        <v>0.9945708030909957</v>
       </c>
       <c r="G6">
-        <v>0.9978933331410141</v>
+        <v>1.001357298501013</v>
       </c>
       <c r="H6">
-        <v>0.9978933331410141</v>
+        <v>1.001357298501013</v>
       </c>
       <c r="I6">
-        <v>0.9943822196769943</v>
+        <v>1.003619464910636</v>
       </c>
       <c r="J6">
-        <v>1.004634650290072</v>
+        <v>0.9970139419953008</v>
       </c>
       <c r="K6">
-        <v>0.9978933331410141</v>
+        <v>1.001357298501013</v>
       </c>
       <c r="L6">
-        <v>0.9978933331410141</v>
+        <v>1.001357298501013</v>
       </c>
       <c r="M6">
-        <v>1.00315999015182</v>
+        <v>0.9979640507960045</v>
       </c>
       <c r="N6">
-        <v>1.00315999015182</v>
+        <v>0.9979640507960045</v>
       </c>
       <c r="O6">
-        <v>1.003651543531237</v>
+        <v>0.9976473478624367</v>
       </c>
       <c r="P6">
-        <v>1.001404437814885</v>
+        <v>0.9990951333643409</v>
       </c>
       <c r="Q6">
-        <v>1.001404437814885</v>
+        <v>0.9990951333643409</v>
       </c>
       <c r="R6">
-        <v>1.000526661646417</v>
+        <v>0.9996606746485089</v>
       </c>
       <c r="S6">
-        <v>1.000526661646417</v>
+        <v>0.9996606746485089</v>
       </c>
       <c r="T6">
-        <v>1.000187252758789</v>
+        <v>0.9998793509166622</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999520755324458</v>
+        <v>0.9994293096613812</v>
       </c>
       <c r="D7">
-        <v>1.000191698661664</v>
+        <v>1.002282759510087</v>
       </c>
       <c r="E7">
-        <v>0.9999520755324458</v>
+        <v>0.9994293096613812</v>
       </c>
       <c r="F7">
-        <v>1.000191698661664</v>
+        <v>1.002282759510087</v>
       </c>
       <c r="G7">
-        <v>0.9999520755324458</v>
+        <v>0.9994293096613812</v>
       </c>
       <c r="H7">
-        <v>0.9999520755324458</v>
+        <v>0.9994293096613812</v>
       </c>
       <c r="I7">
-        <v>0.9998722000333767</v>
+        <v>0.9984781585590764</v>
       </c>
       <c r="J7">
-        <v>1.000105434957903</v>
+        <v>1.001255516981271</v>
       </c>
       <c r="K7">
-        <v>0.9999520755324458</v>
+        <v>0.9994293096613812</v>
       </c>
       <c r="L7">
-        <v>0.9999520755324458</v>
+        <v>0.9994293096613812</v>
       </c>
       <c r="M7">
-        <v>1.000071887097055</v>
+        <v>1.000856034585734</v>
       </c>
       <c r="N7">
-        <v>1.000071887097055</v>
+        <v>1.000856034585734</v>
       </c>
       <c r="O7">
-        <v>1.000083069717338</v>
+        <v>1.000989195384246</v>
       </c>
       <c r="P7">
-        <v>1.000031949908852</v>
+        <v>1.00038045961095</v>
       </c>
       <c r="Q7">
-        <v>1.000031949908852</v>
+        <v>1.00038045961095</v>
       </c>
       <c r="R7">
-        <v>1.00001198131475</v>
+        <v>1.000142672123558</v>
       </c>
       <c r="S7">
-        <v>1.00001198131475</v>
+        <v>1.000142672123558</v>
       </c>
       <c r="T7">
-        <v>1.000004260041713</v>
+        <v>1.000050727339096</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999947510594367</v>
+        <v>0.9978933331410141</v>
       </c>
       <c r="D8">
-        <v>1.000020994046401</v>
+        <v>1.008426647162626</v>
       </c>
       <c r="E8">
-        <v>0.9999947510594367</v>
+        <v>0.9978933331410141</v>
       </c>
       <c r="F8">
-        <v>1.000020994046401</v>
+        <v>1.008426647162626</v>
       </c>
       <c r="G8">
-        <v>0.9999947510594367</v>
+        <v>0.9978933331410141</v>
       </c>
       <c r="H8">
-        <v>0.9999947510594367</v>
+        <v>0.9978933331410141</v>
       </c>
       <c r="I8">
-        <v>0.9999860027497639</v>
+        <v>0.9943822196769943</v>
       </c>
       <c r="J8">
-        <v>1.000011547400902</v>
+        <v>1.004634650290072</v>
       </c>
       <c r="K8">
-        <v>0.9999947510594367</v>
+        <v>0.9978933331410141</v>
       </c>
       <c r="L8">
-        <v>0.9999947510594367</v>
+        <v>0.9978933331410141</v>
       </c>
       <c r="M8">
-        <v>1.000007872552919</v>
+        <v>1.00315999015182</v>
       </c>
       <c r="N8">
-        <v>1.000007872552919</v>
+        <v>1.00315999015182</v>
       </c>
       <c r="O8">
-        <v>1.000009097502247</v>
+        <v>1.003651543531237</v>
       </c>
       <c r="P8">
-        <v>1.000003498721758</v>
+        <v>1.001404437814885</v>
       </c>
       <c r="Q8">
-        <v>1.000003498721758</v>
+        <v>1.001404437814885</v>
       </c>
       <c r="R8">
-        <v>1.000001311806178</v>
+        <v>1.000526661646417</v>
       </c>
       <c r="S8">
-        <v>1.000001311806178</v>
+        <v>1.000526661646417</v>
       </c>
       <c r="T8">
-        <v>1.000000466229229</v>
+        <v>1.000187252758789</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9998841291518948</v>
+        <v>0.9999520755324458</v>
       </c>
       <c r="D9">
-        <v>1.000463478719259</v>
+        <v>1.000191698661664</v>
       </c>
       <c r="E9">
-        <v>0.9998841291518948</v>
+        <v>0.9999520755324458</v>
       </c>
       <c r="F9">
-        <v>1.000463478719259</v>
+        <v>1.000191698661664</v>
       </c>
       <c r="G9">
-        <v>0.9998841291518948</v>
+        <v>0.9999520755324458</v>
       </c>
       <c r="H9">
-        <v>0.9998841291518948</v>
+        <v>0.9999520755324458</v>
       </c>
       <c r="I9">
-        <v>0.999691011295459</v>
+        <v>0.9998722000333767</v>
       </c>
       <c r="J9">
-        <v>1.00025491493787</v>
+        <v>1.000105434957903</v>
       </c>
       <c r="K9">
-        <v>0.9998841291518948</v>
+        <v>0.9999520755324458</v>
       </c>
       <c r="L9">
-        <v>0.9998841291518948</v>
+        <v>0.9999520755324458</v>
       </c>
       <c r="M9">
-        <v>1.000173803935577</v>
+        <v>1.000071887097055</v>
       </c>
       <c r="N9">
-        <v>1.000173803935577</v>
+        <v>1.000071887097055</v>
       </c>
       <c r="O9">
-        <v>1.000200840936341</v>
+        <v>1.000083069717338</v>
       </c>
       <c r="P9">
-        <v>1.00007724567435</v>
+        <v>1.000031949908852</v>
       </c>
       <c r="Q9">
-        <v>1.00007724567435</v>
+        <v>1.000031949908852</v>
       </c>
       <c r="R9">
-        <v>1.000028966543736</v>
+        <v>1.00001198131475</v>
       </c>
       <c r="S9">
-        <v>1.000028966543736</v>
+        <v>1.00001198131475</v>
       </c>
       <c r="T9">
-        <v>1.000010298734712</v>
+        <v>1.000004260041713</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9978618726837805</v>
+        <v>0.9999947510594367</v>
       </c>
       <c r="D10">
-        <v>1.008552488642203</v>
+        <v>1.000020994046401</v>
       </c>
       <c r="E10">
-        <v>0.9978618726837805</v>
+        <v>0.9999947510594367</v>
       </c>
       <c r="F10">
-        <v>1.008552488642203</v>
+        <v>1.000020994046401</v>
       </c>
       <c r="G10">
-        <v>0.9978618726837805</v>
+        <v>0.9999947510594367</v>
       </c>
       <c r="H10">
-        <v>0.9978618726837805</v>
+        <v>0.9999947510594367</v>
       </c>
       <c r="I10">
-        <v>0.99429832552298</v>
+        <v>0.9999860027497639</v>
       </c>
       <c r="J10">
-        <v>1.004703862614569</v>
+        <v>1.000011547400902</v>
       </c>
       <c r="K10">
-        <v>0.9978618726837805</v>
+        <v>0.9999947510594367</v>
       </c>
       <c r="L10">
-        <v>0.9978618726837805</v>
+        <v>0.9999947510594367</v>
       </c>
       <c r="M10">
-        <v>1.003207180662991</v>
+        <v>1.000007872552919</v>
       </c>
       <c r="N10">
-        <v>1.003207180662991</v>
+        <v>1.000007872552919</v>
       </c>
       <c r="O10">
-        <v>1.00370607464685</v>
+        <v>1.000009097502247</v>
       </c>
       <c r="P10">
-        <v>1.001425411336588</v>
+        <v>1.000003498721758</v>
       </c>
       <c r="Q10">
-        <v>1.001425411336588</v>
+        <v>1.000003498721758</v>
       </c>
       <c r="R10">
-        <v>1.000534526673386</v>
+        <v>1.000001311806178</v>
       </c>
       <c r="S10">
-        <v>1.000534526673386</v>
+        <v>1.000001311806178</v>
       </c>
       <c r="T10">
-        <v>1.000190049138515</v>
+        <v>1.000000466229229</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001081528903198</v>
+        <v>0.9998841291518948</v>
       </c>
       <c r="D11">
-        <v>0.9956738869610433</v>
+        <v>1.000463478719259</v>
       </c>
       <c r="E11">
-        <v>1.001081528903198</v>
+        <v>0.9998841291518948</v>
       </c>
       <c r="F11">
-        <v>0.9956738869610433</v>
+        <v>1.000463478719259</v>
       </c>
       <c r="G11">
-        <v>1.001081528903198</v>
+        <v>0.9998841291518948</v>
       </c>
       <c r="H11">
-        <v>1.001081528903198</v>
+        <v>0.9998841291518948</v>
       </c>
       <c r="I11">
-        <v>1.00288407410547</v>
+        <v>0.999691011295459</v>
       </c>
       <c r="J11">
-        <v>0.9976206380327114</v>
+        <v>1.00025491493787</v>
       </c>
       <c r="K11">
-        <v>1.001081528903198</v>
+        <v>0.9998841291518948</v>
       </c>
       <c r="L11">
-        <v>1.001081528903198</v>
+        <v>0.9998841291518948</v>
       </c>
       <c r="M11">
-        <v>0.9983777079321206</v>
+        <v>1.000173803935577</v>
       </c>
       <c r="N11">
-        <v>0.9983777079321206</v>
+        <v>1.000173803935577</v>
       </c>
       <c r="O11">
-        <v>0.9981253512989842</v>
+        <v>1.000200840936341</v>
       </c>
       <c r="P11">
-        <v>0.9992789815891463</v>
+        <v>1.00007724567435</v>
       </c>
       <c r="Q11">
-        <v>0.9992789815891463</v>
+        <v>1.00007724567435</v>
       </c>
       <c r="R11">
-        <v>0.9997296184176592</v>
+        <v>1.000028966543736</v>
       </c>
       <c r="S11">
-        <v>0.9997296184176592</v>
+        <v>1.000028966543736</v>
       </c>
       <c r="T11">
-        <v>0.9999038643014696</v>
+        <v>1.000010298734712</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9994044492736848</v>
+        <v>0.9978618726837805</v>
       </c>
       <c r="D12">
-        <v>1.002382199442107</v>
+        <v>1.008552488642203</v>
       </c>
       <c r="E12">
-        <v>0.9994044492736848</v>
+        <v>0.9978618726837805</v>
       </c>
       <c r="F12">
-        <v>1.002382199442107</v>
+        <v>1.008552488642203</v>
       </c>
       <c r="G12">
-        <v>0.9994044492736848</v>
+        <v>0.9978618726837805</v>
       </c>
       <c r="H12">
-        <v>0.9994044492736848</v>
+        <v>0.9978618726837805</v>
       </c>
       <c r="I12">
-        <v>0.9984118647789455</v>
+        <v>0.99429832552298</v>
       </c>
       <c r="J12">
-        <v>1.001310207400001</v>
+        <v>1.004703862614569</v>
       </c>
       <c r="K12">
-        <v>0.9994044492736848</v>
+        <v>0.9978618726837805</v>
       </c>
       <c r="L12">
-        <v>0.9994044492736848</v>
+        <v>0.9978618726837805</v>
       </c>
       <c r="M12">
-        <v>1.000893324357896</v>
+        <v>1.003207180662991</v>
       </c>
       <c r="N12">
-        <v>1.000893324357896</v>
+        <v>1.003207180662991</v>
       </c>
       <c r="O12">
-        <v>1.001032285371931</v>
+        <v>1.00370607464685</v>
       </c>
       <c r="P12">
-        <v>1.000397032663159</v>
+        <v>1.001425411336588</v>
       </c>
       <c r="Q12">
-        <v>1.000397032663159</v>
+        <v>1.001425411336588</v>
       </c>
       <c r="R12">
-        <v>1.00014888681579</v>
+        <v>1.000534526673386</v>
       </c>
       <c r="S12">
-        <v>1.00014888681579</v>
+        <v>1.000534526673386</v>
       </c>
       <c r="T12">
-        <v>1.000052936573685</v>
+        <v>1.000190049138515</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000420513399842</v>
+        <v>1.001081528903198</v>
       </c>
       <c r="D13">
-        <v>0.9983179463199264</v>
+        <v>0.9956738869610433</v>
       </c>
       <c r="E13">
-        <v>1.000420513399842</v>
+        <v>1.001081528903198</v>
       </c>
       <c r="F13">
-        <v>0.9983179463199264</v>
+        <v>0.9956738869610433</v>
       </c>
       <c r="G13">
-        <v>1.000420513399842</v>
+        <v>1.001081528903198</v>
       </c>
       <c r="H13">
-        <v>1.000420513399842</v>
+        <v>1.001081528903198</v>
       </c>
       <c r="I13">
-        <v>1.001121369114895</v>
+        <v>1.00288407410547</v>
       </c>
       <c r="J13">
-        <v>0.9990748696941155</v>
+        <v>0.9976206380327114</v>
       </c>
       <c r="K13">
-        <v>1.000420513399842</v>
+        <v>1.001081528903198</v>
       </c>
       <c r="L13">
-        <v>1.000420513399842</v>
+        <v>1.001081528903198</v>
       </c>
       <c r="M13">
-        <v>0.9993692298598844</v>
+        <v>0.9983777079321206</v>
       </c>
       <c r="N13">
-        <v>0.9993692298598844</v>
+        <v>0.9983777079321206</v>
       </c>
       <c r="O13">
-        <v>0.9992711098046282</v>
+        <v>0.9981253512989842</v>
       </c>
       <c r="P13">
-        <v>0.999719657706537</v>
+        <v>0.9992789815891463</v>
       </c>
       <c r="Q13">
-        <v>0.999719657706537</v>
+        <v>0.9992789815891463</v>
       </c>
       <c r="R13">
-        <v>0.9998948716298633</v>
+        <v>0.9997296184176592</v>
       </c>
       <c r="S13">
-        <v>0.9998948716298633</v>
+        <v>0.9997296184176592</v>
       </c>
       <c r="T13">
-        <v>0.9999626208880773</v>
+        <v>0.9999038643014696</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9963059399999995</v>
+        <v>0.9994044492736848</v>
       </c>
       <c r="D14">
-        <v>1.0147762</v>
+        <v>1.002382199442107</v>
       </c>
       <c r="E14">
-        <v>0.9963059399999995</v>
+        <v>0.9994044492736848</v>
       </c>
       <c r="F14">
-        <v>1.0147762</v>
+        <v>1.002382199442107</v>
       </c>
       <c r="G14">
-        <v>0.9963059399999995</v>
+        <v>0.9994044492736848</v>
       </c>
       <c r="H14">
-        <v>0.9963059399999995</v>
+        <v>0.9994044492736848</v>
       </c>
       <c r="I14">
-        <v>0.9901491700000002</v>
+        <v>0.9984118647789455</v>
       </c>
       <c r="J14">
-        <v>1.0081269</v>
+        <v>1.001310207400001</v>
       </c>
       <c r="K14">
-        <v>0.9963059399999995</v>
+        <v>0.9994044492736848</v>
       </c>
       <c r="L14">
-        <v>0.9963059399999995</v>
+        <v>0.9994044492736848</v>
       </c>
       <c r="M14">
-        <v>1.00554107</v>
+        <v>1.000893324357896</v>
       </c>
       <c r="N14">
-        <v>1.00554107</v>
+        <v>1.000893324357896</v>
       </c>
       <c r="O14">
-        <v>1.006403013333333</v>
+        <v>1.001032285371931</v>
       </c>
       <c r="P14">
-        <v>1.002462693333333</v>
+        <v>1.000397032663159</v>
       </c>
       <c r="Q14">
-        <v>1.002462693333333</v>
+        <v>1.000397032663159</v>
       </c>
       <c r="R14">
-        <v>1.000923505</v>
+        <v>1.00014888681579</v>
       </c>
       <c r="S14">
-        <v>1.000923505</v>
+        <v>1.00014888681579</v>
       </c>
       <c r="T14">
-        <v>1.000328348333333</v>
+        <v>1.000052936573685</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0042979</v>
+        <v>1.000420513399842</v>
       </c>
       <c r="D15">
-        <v>0.98280841</v>
+        <v>0.9983179463199264</v>
       </c>
       <c r="E15">
-        <v>1.0042979</v>
+        <v>1.000420513399842</v>
       </c>
       <c r="F15">
-        <v>0.98280841</v>
+        <v>0.9983179463199264</v>
       </c>
       <c r="G15">
-        <v>1.0042979</v>
+        <v>1.000420513399842</v>
       </c>
       <c r="H15">
-        <v>1.0042979</v>
+        <v>1.000420513399842</v>
       </c>
       <c r="I15">
-        <v>1.0114611</v>
+        <v>1.001121369114895</v>
       </c>
       <c r="J15">
-        <v>0.99054463</v>
+        <v>0.9990748696941155</v>
       </c>
       <c r="K15">
-        <v>1.0042979</v>
+        <v>1.000420513399842</v>
       </c>
       <c r="L15">
-        <v>1.0042979</v>
+        <v>1.000420513399842</v>
       </c>
       <c r="M15">
-        <v>0.9935531550000001</v>
+        <v>0.9993692298598844</v>
       </c>
       <c r="N15">
-        <v>0.9935531550000001</v>
+        <v>0.9993692298598844</v>
       </c>
       <c r="O15">
-        <v>0.9925503133333334</v>
+        <v>0.9992711098046282</v>
       </c>
       <c r="P15">
-        <v>0.9971347366666667</v>
+        <v>0.999719657706537</v>
       </c>
       <c r="Q15">
-        <v>0.9971347366666667</v>
+        <v>0.999719657706537</v>
       </c>
       <c r="R15">
-        <v>0.9989255275000001</v>
+        <v>0.9998948716298633</v>
       </c>
       <c r="S15">
-        <v>0.9989255275000001</v>
+        <v>0.9998948716298633</v>
       </c>
       <c r="T15">
-        <v>0.9996179733333334</v>
+        <v>0.9999626208880773</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0099811</v>
+        <v>0.9963059399999995</v>
       </c>
       <c r="D16">
-        <v>0.9600757300000001</v>
+        <v>1.0147762</v>
       </c>
       <c r="E16">
-        <v>1.0099811</v>
+        <v>0.9963059399999995</v>
       </c>
       <c r="F16">
-        <v>0.9600757300000001</v>
+        <v>1.0147762</v>
       </c>
       <c r="G16">
-        <v>1.0099811</v>
+        <v>0.9963059399999995</v>
       </c>
       <c r="H16">
-        <v>1.0099811</v>
+        <v>0.9963059399999995</v>
       </c>
       <c r="I16">
-        <v>1.0266162</v>
+        <v>0.9901491700000002</v>
       </c>
       <c r="J16">
-        <v>0.97804165</v>
+        <v>1.0081269</v>
       </c>
       <c r="K16">
-        <v>1.0099811</v>
+        <v>0.9963059399999995</v>
       </c>
       <c r="L16">
-        <v>1.0099811</v>
+        <v>0.9963059399999995</v>
       </c>
       <c r="M16">
-        <v>0.9850284150000002</v>
+        <v>1.00554107</v>
       </c>
       <c r="N16">
-        <v>0.9850284150000002</v>
+        <v>1.00554107</v>
       </c>
       <c r="O16">
-        <v>0.9826994933333335</v>
+        <v>1.006403013333333</v>
       </c>
       <c r="P16">
-        <v>0.9933459766666668</v>
+        <v>1.002462693333333</v>
       </c>
       <c r="Q16">
-        <v>0.9933459766666668</v>
+        <v>1.002462693333333</v>
       </c>
       <c r="R16">
-        <v>0.9975047575000001</v>
+        <v>1.000923505</v>
       </c>
       <c r="S16">
-        <v>0.9975047575000001</v>
+        <v>1.000923505</v>
       </c>
       <c r="T16">
-        <v>0.9991128133333335</v>
+        <v>1.000328348333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0042646</v>
+        <v>1.0042979</v>
       </c>
       <c r="D17">
-        <v>0.98294161</v>
+        <v>0.98280841</v>
       </c>
       <c r="E17">
-        <v>1.0042646</v>
+        <v>1.0042979</v>
       </c>
       <c r="F17">
-        <v>0.98294161</v>
+        <v>0.98280841</v>
       </c>
       <c r="G17">
-        <v>1.0042646</v>
+        <v>1.0042979</v>
       </c>
       <c r="H17">
-        <v>1.0042646</v>
+        <v>1.0042979</v>
       </c>
       <c r="I17">
-        <v>1.0113723</v>
+        <v>1.0114611</v>
       </c>
       <c r="J17">
-        <v>0.99061788</v>
+        <v>0.99054463</v>
       </c>
       <c r="K17">
-        <v>1.0042646</v>
+        <v>1.0042979</v>
       </c>
       <c r="L17">
-        <v>1.0042646</v>
+        <v>1.0042979</v>
       </c>
       <c r="M17">
-        <v>0.993603105</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N17">
-        <v>0.993603105</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O17">
-        <v>0.99260803</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P17">
-        <v>0.9971569366666667</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q17">
-        <v>0.9971569366666667</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R17">
-        <v>0.9989338525</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S17">
-        <v>0.9989338525</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T17">
-        <v>0.9996209316666667</v>
+        <v>0.9996179733333334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9986925832876716</v>
+        <v>1.0099811</v>
       </c>
       <c r="D18">
-        <v>1.005229682328767</v>
+        <v>0.9600757300000001</v>
       </c>
       <c r="E18">
-        <v>0.9986925832876716</v>
+        <v>1.0099811</v>
       </c>
       <c r="F18">
-        <v>1.005229682328767</v>
+        <v>0.9600757300000001</v>
       </c>
       <c r="G18">
-        <v>0.9986925832876716</v>
+        <v>1.0099811</v>
       </c>
       <c r="H18">
-        <v>0.9986925832876716</v>
+        <v>1.0099811</v>
       </c>
       <c r="I18">
-        <v>0.996513543835616</v>
+        <v>1.0266162</v>
       </c>
       <c r="J18">
-        <v>1.002876332465753</v>
+        <v>0.97804165</v>
       </c>
       <c r="K18">
-        <v>0.9986925832876716</v>
+        <v>1.0099811</v>
       </c>
       <c r="L18">
-        <v>0.9986925832876716</v>
+        <v>1.0099811</v>
       </c>
       <c r="M18">
-        <v>1.00196113280822</v>
+        <v>0.9850284150000002</v>
       </c>
       <c r="N18">
-        <v>1.00196113280822</v>
+        <v>0.9850284150000002</v>
       </c>
       <c r="O18">
-        <v>1.002266199360731</v>
+        <v>0.9826994933333335</v>
       </c>
       <c r="P18">
-        <v>1.00087161630137</v>
+        <v>0.9933459766666668</v>
       </c>
       <c r="Q18">
-        <v>1.00087161630137</v>
+        <v>0.9933459766666668</v>
       </c>
       <c r="R18">
-        <v>1.000326858047946</v>
+        <v>0.9975047575000001</v>
       </c>
       <c r="S18">
-        <v>1.000326858047946</v>
+        <v>0.9975047575000001</v>
       </c>
       <c r="T18">
-        <v>1.000116218082192</v>
+        <v>0.9991128133333335</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001692329473684</v>
+        <v>1.0042646</v>
       </c>
       <c r="D19">
-        <v>0.9932306668421054</v>
+        <v>0.98294161</v>
       </c>
       <c r="E19">
-        <v>1.001692329473684</v>
+        <v>1.0042646</v>
       </c>
       <c r="F19">
-        <v>0.9932306668421054</v>
+        <v>0.98294161</v>
       </c>
       <c r="G19">
-        <v>1.001692329473684</v>
+        <v>1.0042646</v>
       </c>
       <c r="H19">
-        <v>1.001692329473684</v>
+        <v>1.0042646</v>
       </c>
       <c r="I19">
-        <v>1.004512892631579</v>
+        <v>1.0113723</v>
       </c>
       <c r="J19">
-        <v>0.9962768642105263</v>
+        <v>0.99061788</v>
       </c>
       <c r="K19">
-        <v>1.001692329473684</v>
+        <v>1.0042646</v>
       </c>
       <c r="L19">
-        <v>1.001692329473684</v>
+        <v>1.0042646</v>
       </c>
       <c r="M19">
-        <v>0.9974614981578948</v>
+        <v>0.993603105</v>
       </c>
       <c r="N19">
-        <v>0.9974614981578948</v>
+        <v>0.993603105</v>
       </c>
       <c r="O19">
-        <v>0.9970666201754387</v>
+        <v>0.99260803</v>
       </c>
       <c r="P19">
-        <v>0.998871775263158</v>
+        <v>0.9971569366666667</v>
       </c>
       <c r="Q19">
-        <v>0.998871775263158</v>
+        <v>0.9971569366666667</v>
       </c>
       <c r="R19">
-        <v>0.9995769138157895</v>
+        <v>0.9989338525</v>
       </c>
       <c r="S19">
-        <v>0.9995769138157895</v>
+        <v>0.9989338525</v>
       </c>
       <c r="T19">
-        <v>0.9998495686842105</v>
+        <v>0.9996209316666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.003561802631579</v>
+        <v>0.9986925832876716</v>
       </c>
       <c r="D20">
-        <v>0.985752805263158</v>
+        <v>1.005229682328767</v>
       </c>
       <c r="E20">
-        <v>1.003561802631579</v>
+        <v>0.9986925832876716</v>
       </c>
       <c r="F20">
-        <v>0.985752805263158</v>
+        <v>1.005229682328767</v>
       </c>
       <c r="G20">
-        <v>1.003561802631579</v>
+        <v>0.9986925832876716</v>
       </c>
       <c r="H20">
-        <v>1.003561802631579</v>
+        <v>0.9986925832876716</v>
       </c>
       <c r="I20">
-        <v>1.009498128947369</v>
+        <v>0.996513543835616</v>
       </c>
       <c r="J20">
-        <v>0.9921640489473685</v>
+        <v>1.002876332465753</v>
       </c>
       <c r="K20">
-        <v>1.003561802631579</v>
+        <v>0.9986925832876716</v>
       </c>
       <c r="L20">
-        <v>1.003561802631579</v>
+        <v>0.9986925832876716</v>
       </c>
       <c r="M20">
-        <v>0.9946573039473685</v>
+        <v>1.00196113280822</v>
       </c>
       <c r="N20">
-        <v>0.9946573039473685</v>
+        <v>1.00196113280822</v>
       </c>
       <c r="O20">
-        <v>0.9938262189473686</v>
+        <v>1.002266199360731</v>
       </c>
       <c r="P20">
-        <v>0.9976254701754387</v>
+        <v>1.00087161630137</v>
       </c>
       <c r="Q20">
-        <v>0.9976254701754387</v>
+        <v>1.00087161630137</v>
       </c>
       <c r="R20">
-        <v>0.9991095532894737</v>
+        <v>1.000326858047946</v>
       </c>
       <c r="S20">
-        <v>0.9991095532894737</v>
+        <v>1.000326858047946</v>
       </c>
       <c r="T20">
-        <v>0.9996833985087719</v>
+        <v>1.000116218082192</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9985150025448931</v>
+        <v>1.001692329473684</v>
       </c>
       <c r="D21">
-        <v>1.005940009352896</v>
+        <v>0.9932306668421054</v>
       </c>
       <c r="E21">
-        <v>0.9985150025448931</v>
+        <v>1.001692329473684</v>
       </c>
       <c r="F21">
-        <v>1.005940009352896</v>
+        <v>0.9932306668421054</v>
       </c>
       <c r="G21">
-        <v>0.9985150025448931</v>
+        <v>1.001692329473684</v>
       </c>
       <c r="H21">
-        <v>0.9985150025448931</v>
+        <v>1.001692329473684</v>
       </c>
       <c r="I21">
-        <v>0.9960400001423928</v>
+        <v>1.004512892631579</v>
       </c>
       <c r="J21">
-        <v>1.003267005316075</v>
+        <v>0.9962768642105263</v>
       </c>
       <c r="K21">
-        <v>0.9985150025448931</v>
+        <v>1.001692329473684</v>
       </c>
       <c r="L21">
-        <v>0.9985150025448931</v>
+        <v>1.001692329473684</v>
       </c>
       <c r="M21">
-        <v>1.002227505948895</v>
+        <v>0.9974614981578948</v>
       </c>
       <c r="N21">
-        <v>1.002227505948895</v>
+        <v>0.9974614981578948</v>
       </c>
       <c r="O21">
-        <v>1.002574005737954</v>
+        <v>0.9970666201754387</v>
       </c>
       <c r="P21">
-        <v>1.000990004814227</v>
+        <v>0.998871775263158</v>
       </c>
       <c r="Q21">
-        <v>1.000990004814227</v>
+        <v>0.998871775263158</v>
       </c>
       <c r="R21">
-        <v>1.000371254246894</v>
+        <v>0.9995769138157895</v>
       </c>
       <c r="S21">
-        <v>1.000371254246894</v>
+        <v>0.9995769138157895</v>
       </c>
       <c r="T21">
-        <v>1.000132003741007</v>
+        <v>0.9998495686842105</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9995934440292141</v>
+        <v>1.003561802631579</v>
       </c>
       <c r="D22">
-        <v>1.001626225666812</v>
+        <v>0.985752805263158</v>
       </c>
       <c r="E22">
-        <v>0.9995934440292141</v>
+        <v>1.003561802631579</v>
       </c>
       <c r="F22">
-        <v>1.001626225666812</v>
+        <v>0.985752805263158</v>
       </c>
       <c r="G22">
-        <v>0.9995934440292141</v>
+        <v>1.003561802631579</v>
       </c>
       <c r="H22">
-        <v>0.9995934440292141</v>
+        <v>1.003561802631579</v>
       </c>
       <c r="I22">
-        <v>0.9989158532468723</v>
+        <v>1.009498128947369</v>
       </c>
       <c r="J22">
-        <v>1.000894412558137</v>
+        <v>0.9921640489473685</v>
       </c>
       <c r="K22">
-        <v>0.9995934440292141</v>
+        <v>1.003561802631579</v>
       </c>
       <c r="L22">
-        <v>0.9995934440292141</v>
+        <v>1.003561802631579</v>
       </c>
       <c r="M22">
-        <v>1.000609834848013</v>
+        <v>0.9946573039473685</v>
       </c>
       <c r="N22">
-        <v>1.000609834848013</v>
+        <v>0.9946573039473685</v>
       </c>
       <c r="O22">
-        <v>1.000704694084721</v>
+        <v>0.9938262189473686</v>
       </c>
       <c r="P22">
-        <v>1.000271037908413</v>
+        <v>0.9976254701754387</v>
       </c>
       <c r="Q22">
-        <v>1.000271037908413</v>
+        <v>0.9976254701754387</v>
       </c>
       <c r="R22">
-        <v>1.000101639438614</v>
+        <v>0.9991095532894737</v>
       </c>
       <c r="S22">
-        <v>1.000101639438614</v>
+        <v>0.9991095532894737</v>
       </c>
       <c r="T22">
-        <v>1.00003613725991</v>
+        <v>0.9996833985087719</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9997612421396281</v>
+        <v>0.9985150025448931</v>
       </c>
       <c r="D23">
-        <v>1.000955018273049</v>
+        <v>1.005940009352896</v>
       </c>
       <c r="E23">
-        <v>0.9997612421396281</v>
+        <v>0.9985150025448931</v>
       </c>
       <c r="F23">
-        <v>1.000955018273049</v>
+        <v>1.005940009352896</v>
       </c>
       <c r="G23">
-        <v>0.9997612421396281</v>
+        <v>0.9985150025448931</v>
       </c>
       <c r="H23">
-        <v>0.9997612421396281</v>
+        <v>0.9985150025448931</v>
       </c>
       <c r="I23">
-        <v>0.999363323984907</v>
+        <v>0.9960400001423928</v>
       </c>
       <c r="J23">
-        <v>1.000525256324738</v>
+        <v>1.003267005316075</v>
       </c>
       <c r="K23">
-        <v>0.9997612421396281</v>
+        <v>0.9985150025448931</v>
       </c>
       <c r="L23">
-        <v>0.9997612421396281</v>
+        <v>0.9985150025448931</v>
       </c>
       <c r="M23">
-        <v>1.000358130206339</v>
+        <v>1.002227505948895</v>
       </c>
       <c r="N23">
-        <v>1.000358130206339</v>
+        <v>1.002227505948895</v>
       </c>
       <c r="O23">
-        <v>1.000413838912472</v>
+        <v>1.002574005737954</v>
       </c>
       <c r="P23">
-        <v>1.000159167517435</v>
+        <v>1.000990004814227</v>
       </c>
       <c r="Q23">
-        <v>1.000159167517435</v>
+        <v>1.000990004814227</v>
       </c>
       <c r="R23">
-        <v>1.000059686172983</v>
+        <v>1.000371254246894</v>
       </c>
       <c r="S23">
-        <v>1.000059686172983</v>
+        <v>1.000371254246894</v>
       </c>
       <c r="T23">
-        <v>1.000021220833596</v>
+        <v>1.000132003741007</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9999366958598266</v>
+        <v>0.9995934440292141</v>
       </c>
       <c r="D24">
-        <v>1.000253224397818</v>
+        <v>1.001626225666812</v>
       </c>
       <c r="E24">
-        <v>0.9999366958598266</v>
+        <v>0.9995934440292141</v>
       </c>
       <c r="F24">
-        <v>1.000253224397818</v>
+        <v>1.001626225666812</v>
       </c>
       <c r="G24">
-        <v>0.9999366958598266</v>
+        <v>0.9995934440292141</v>
       </c>
       <c r="H24">
-        <v>0.9999366958598266</v>
+        <v>0.9995934440292141</v>
       </c>
       <c r="I24">
-        <v>0.9998311842094293</v>
+        <v>0.9989158532468723</v>
       </c>
       <c r="J24">
-        <v>1.000139273847505</v>
+        <v>1.000894412558137</v>
       </c>
       <c r="K24">
-        <v>0.9999366958598266</v>
+        <v>0.9995934440292141</v>
       </c>
       <c r="L24">
-        <v>0.9999366958598266</v>
+        <v>0.9995934440292141</v>
       </c>
       <c r="M24">
-        <v>1.000094960128822</v>
+        <v>1.000609834848013</v>
       </c>
       <c r="N24">
-        <v>1.000094960128822</v>
+        <v>1.000609834848013</v>
       </c>
       <c r="O24">
-        <v>1.000109731368383</v>
+        <v>1.000704694084721</v>
       </c>
       <c r="P24">
-        <v>1.00004220537249</v>
+        <v>1.000271037908413</v>
       </c>
       <c r="Q24">
-        <v>1.00004220537249</v>
+        <v>1.000271037908413</v>
       </c>
       <c r="R24">
-        <v>1.000015827994325</v>
+        <v>1.000101639438614</v>
       </c>
       <c r="S24">
-        <v>1.000015827994325</v>
+        <v>1.000101639438614</v>
       </c>
       <c r="T24">
-        <v>1.000005628339039</v>
+        <v>1.00003613725991</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.003898907217614</v>
+        <v>0.9997612421396281</v>
       </c>
       <c r="D25">
-        <v>0.9844044039510289</v>
+        <v>1.000955018273049</v>
       </c>
       <c r="E25">
-        <v>1.003898907217614</v>
+        <v>0.9997612421396281</v>
       </c>
       <c r="F25">
-        <v>0.9844044039510289</v>
+        <v>1.000955018273049</v>
       </c>
       <c r="G25">
-        <v>1.003898907217614</v>
+        <v>0.9997612421396281</v>
       </c>
       <c r="H25">
-        <v>1.003898907217614</v>
+        <v>0.9997612421396281</v>
       </c>
       <c r="I25">
-        <v>1.01039706505871</v>
+        <v>0.999363323984907</v>
       </c>
       <c r="J25">
-        <v>0.9914224221160978</v>
+        <v>1.000525256324738</v>
       </c>
       <c r="K25">
-        <v>1.003898907217614</v>
+        <v>0.9997612421396281</v>
       </c>
       <c r="L25">
-        <v>1.003898907217614</v>
+        <v>0.9997612421396281</v>
       </c>
       <c r="M25">
-        <v>0.9941516555843214</v>
+        <v>1.000358130206339</v>
       </c>
       <c r="N25">
-        <v>0.9941516555843214</v>
+        <v>1.000358130206339</v>
       </c>
       <c r="O25">
-        <v>0.9932419110949136</v>
+        <v>1.000413838912472</v>
       </c>
       <c r="P25">
-        <v>0.9974007394620855</v>
+        <v>1.000159167517435</v>
       </c>
       <c r="Q25">
-        <v>0.9974007394620855</v>
+        <v>1.000159167517435</v>
       </c>
       <c r="R25">
-        <v>0.9990252814009676</v>
+        <v>1.000059686172983</v>
       </c>
       <c r="S25">
-        <v>0.9990252814009676</v>
+        <v>1.000059686172983</v>
       </c>
       <c r="T25">
-        <v>0.999653435463113</v>
+        <v>1.000021220833596</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.001033115463759</v>
+        <v>0.9999366958598266</v>
       </c>
       <c r="D26">
-        <v>0.9958675212528204</v>
+        <v>1.000253224397818</v>
       </c>
       <c r="E26">
-        <v>1.001033115463759</v>
+        <v>0.9999366958598266</v>
       </c>
       <c r="F26">
-        <v>0.9958675212528204</v>
+        <v>1.000253224397818</v>
       </c>
       <c r="G26">
-        <v>1.001033115463759</v>
+        <v>0.9999366958598266</v>
       </c>
       <c r="H26">
-        <v>1.001033115463759</v>
+        <v>0.9999366958598266</v>
       </c>
       <c r="I26">
-        <v>1.002754984078896</v>
+        <v>0.9998311842094293</v>
       </c>
       <c r="J26">
-        <v>0.9977271288890958</v>
+        <v>1.000139273847505</v>
       </c>
       <c r="K26">
-        <v>1.001033115463759</v>
+        <v>0.9999366958598266</v>
       </c>
       <c r="L26">
-        <v>1.001033115463759</v>
+        <v>0.9999366958598266</v>
       </c>
       <c r="M26">
-        <v>0.9984503183582898</v>
+        <v>1.000094960128822</v>
       </c>
       <c r="N26">
-        <v>0.9984503183582898</v>
+        <v>1.000094960128822</v>
       </c>
       <c r="O26">
-        <v>0.9982092552018917</v>
+        <v>1.000109731368383</v>
       </c>
       <c r="P26">
-        <v>0.9993112507267797</v>
+        <v>1.00004220537249</v>
       </c>
       <c r="Q26">
-        <v>0.9993112507267797</v>
+        <v>1.00004220537249</v>
       </c>
       <c r="R26">
-        <v>0.9997417169110245</v>
+        <v>1.000015827994325</v>
       </c>
       <c r="S26">
-        <v>0.9997417169110245</v>
+        <v>1.000015827994325</v>
       </c>
       <c r="T26">
-        <v>0.9999081634353484</v>
+        <v>1.000005628339039</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9997798351072928</v>
+        <v>1.003898907217614</v>
       </c>
       <c r="D27">
-        <v>1.000880661715044</v>
+        <v>0.9844044039510289</v>
       </c>
       <c r="E27">
-        <v>0.9997798351072928</v>
+        <v>1.003898907217614</v>
       </c>
       <c r="F27">
-        <v>1.000880661715044</v>
+        <v>0.9844044039510289</v>
       </c>
       <c r="G27">
-        <v>0.9997798351072928</v>
+        <v>1.003898907217614</v>
       </c>
       <c r="H27">
-        <v>0.9997798351072928</v>
+        <v>1.003898907217614</v>
       </c>
       <c r="I27">
-        <v>0.999412893520267</v>
+        <v>1.01039706505871</v>
       </c>
       <c r="J27">
-        <v>1.000484354511546</v>
+        <v>0.9914224221160978</v>
       </c>
       <c r="K27">
-        <v>0.9997798351072928</v>
+        <v>1.003898907217614</v>
       </c>
       <c r="L27">
-        <v>0.9997798351072928</v>
+        <v>1.003898907217614</v>
       </c>
       <c r="M27">
-        <v>1.000330248411168</v>
+        <v>0.9941516555843214</v>
       </c>
       <c r="N27">
-        <v>1.000330248411168</v>
+        <v>0.9941516555843214</v>
       </c>
       <c r="O27">
-        <v>1.000381617111294</v>
+        <v>0.9932419110949136</v>
       </c>
       <c r="P27">
-        <v>1.000146777309877</v>
+        <v>0.9974007394620855</v>
       </c>
       <c r="Q27">
-        <v>1.000146777309877</v>
+        <v>0.9974007394620855</v>
       </c>
       <c r="R27">
-        <v>1.000055041759231</v>
+        <v>0.9990252814009676</v>
       </c>
       <c r="S27">
-        <v>1.000055041759231</v>
+        <v>0.9990252814009676</v>
       </c>
       <c r="T27">
-        <v>1.000019569178123</v>
+        <v>0.999653435463113</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.000648467066598</v>
+        <v>1.001033115463759</v>
       </c>
       <c r="D28">
-        <v>0.9974061470006251</v>
+        <v>0.9958675212528204</v>
       </c>
       <c r="E28">
-        <v>1.000648467066598</v>
+        <v>1.001033115463759</v>
       </c>
       <c r="F28">
-        <v>0.9974061470006251</v>
+        <v>0.9958675212528204</v>
       </c>
       <c r="G28">
-        <v>1.000648467066598</v>
+        <v>1.001033115463759</v>
       </c>
       <c r="H28">
-        <v>1.000648467066598</v>
+        <v>1.001033115463759</v>
       </c>
       <c r="I28">
-        <v>1.001729242030945</v>
+        <v>1.002754984078896</v>
       </c>
       <c r="J28">
-        <v>0.9985733825997828</v>
+        <v>0.9977271288890958</v>
       </c>
       <c r="K28">
-        <v>1.000648467066598</v>
+        <v>1.001033115463759</v>
       </c>
       <c r="L28">
-        <v>1.000648467066598</v>
+        <v>1.001033115463759</v>
       </c>
       <c r="M28">
-        <v>0.9990273070336115</v>
+        <v>0.9984503183582898</v>
       </c>
       <c r="N28">
-        <v>0.9990273070336115</v>
+        <v>0.9984503183582898</v>
       </c>
       <c r="O28">
-        <v>0.998875998889002</v>
+        <v>0.9982092552018917</v>
       </c>
       <c r="P28">
-        <v>0.9995676937112736</v>
+        <v>0.9993112507267797</v>
       </c>
       <c r="Q28">
-        <v>0.9995676937112736</v>
+        <v>0.9993112507267797</v>
       </c>
       <c r="R28">
-        <v>0.9998378870501047</v>
+        <v>0.9997417169110245</v>
       </c>
       <c r="S28">
-        <v>0.9998378870501047</v>
+        <v>0.9997417169110245</v>
       </c>
       <c r="T28">
-        <v>0.9999423621385245</v>
+        <v>0.9999081634353484</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9997798351072928</v>
+      </c>
+      <c r="D29">
+        <v>1.000880661715044</v>
+      </c>
+      <c r="E29">
+        <v>0.9997798351072928</v>
+      </c>
+      <c r="F29">
+        <v>1.000880661715044</v>
+      </c>
+      <c r="G29">
+        <v>0.9997798351072928</v>
+      </c>
+      <c r="H29">
+        <v>0.9997798351072928</v>
+      </c>
+      <c r="I29">
+        <v>0.999412893520267</v>
+      </c>
+      <c r="J29">
+        <v>1.000484354511546</v>
+      </c>
+      <c r="K29">
+        <v>0.9997798351072928</v>
+      </c>
+      <c r="L29">
+        <v>0.9997798351072928</v>
+      </c>
+      <c r="M29">
+        <v>1.000330248411168</v>
+      </c>
+      <c r="N29">
+        <v>1.000330248411168</v>
+      </c>
+      <c r="O29">
+        <v>1.000381617111294</v>
+      </c>
+      <c r="P29">
+        <v>1.000146777309877</v>
+      </c>
+      <c r="Q29">
+        <v>1.000146777309877</v>
+      </c>
+      <c r="R29">
+        <v>1.000055041759231</v>
+      </c>
+      <c r="S29">
+        <v>1.000055041759231</v>
+      </c>
+      <c r="T29">
+        <v>1.000019569178123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000648467066598</v>
+      </c>
+      <c r="D30">
+        <v>0.9974061470006251</v>
+      </c>
+      <c r="E30">
+        <v>1.000648467066598</v>
+      </c>
+      <c r="F30">
+        <v>0.9974061470006251</v>
+      </c>
+      <c r="G30">
+        <v>1.000648467066598</v>
+      </c>
+      <c r="H30">
+        <v>1.000648467066598</v>
+      </c>
+      <c r="I30">
+        <v>1.001729242030945</v>
+      </c>
+      <c r="J30">
+        <v>0.9985733825997828</v>
+      </c>
+      <c r="K30">
+        <v>1.000648467066598</v>
+      </c>
+      <c r="L30">
+        <v>1.000648467066598</v>
+      </c>
+      <c r="M30">
+        <v>0.9990273070336115</v>
+      </c>
+      <c r="N30">
+        <v>0.9990273070336115</v>
+      </c>
+      <c r="O30">
+        <v>0.998875998889002</v>
+      </c>
+      <c r="P30">
+        <v>0.9995676937112736</v>
+      </c>
+      <c r="Q30">
+        <v>0.9995676937112736</v>
+      </c>
+      <c r="R30">
+        <v>0.9998378870501047</v>
+      </c>
+      <c r="S30">
+        <v>0.9998378870501047</v>
+      </c>
+      <c r="T30">
+        <v>0.9999423621385245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.001288833060863</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9948446695750164</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.001288833060863</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9948446695750164</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.001288833060863</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.001288833060863</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.003436895286492</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9971645758686778</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.001288833060863</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.001288833060863</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9980667513179395</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9980667513179395</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9977660261681857</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9991407785655806</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9991407785655806</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9996777921894011</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9996777921894011</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9998854399854623</v>
       </c>
     </row>
